--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3421A6B6-9F16-B34F-99B3-68AA5C266BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD667-0131-AA41-8029-1F7A89B8E23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1220" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="3180" yWindow="820" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -347,6 +347,374 @@
   </si>
   <si>
     <t>第一轮完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表，判断链表中是否有环。</t>
+  </si>
+  <si>
+    <t>1. 哈希表, O(n), O(n)
+2. 快慢指针 O(n), O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定一个非负整数 numRows，生成杨辉三角的前 numRows 行。
+在杨辉三角中，每个数是它左上方和右上方的数的和。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，O(n^2), O(n^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>回文链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请判断一个链表是否为回文链表。</t>
+  </si>
+  <si>
+    <t>第二轮完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 转成vector暴力匹配，O(n), O(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 快慢指针，反转前半部分链表。O(n), O(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 递归.DFS, O(n), O(logn)
+2. 使用栈做迭代的DFS，O(n), O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>给定一个二叉树，找出其最大深度。</t>
+  </si>
+  <si>
+    <t>给定一个二叉树，检查它是否是镜像对称的。</t>
+  </si>
+  <si>
+    <t>对称二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>最小栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、DFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个支持 push，pop，top 操作，并能在常数时间内检索到最小元素的栈。</t>
+  </si>
+  <si>
+    <t>栈、设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 递归，检测左右子树是否互为镜像。O(n), O(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 使用队列做迭代，O(n), O(n)，构建两个队列，以相反的顺序插入节点。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用变量或辅助栈存储当前的最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共前缀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个函数来查找字符串数组中的最长公共前缀。</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>只出现一次的数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非空整数数组，除了某个元素只出现一次以外，其余每个元素均出现两次。找出那个只出现了一次的元素。</t>
+  </si>
+  <si>
+    <t>1. 哈希表，O(n), O(n)
+2. 位运算，O(n), O(1)。所有的数直接做异或操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number/</t>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是一个专业的小偷，计划偷窃沿街的房屋。每间房内都藏有一定的现金，影响你偷窃的唯一制约因素就是相邻的房屋装有相互连通的防盗系统，如果两间相邻的房屋在同一晚上被小偷闯入，系统会自动报警。
+给定一个代表每个房屋存放金额的非负整数数组，计算你在不触动警报装置的情况下，能够偷窃到的最高金额。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，currentMax = max(num + prepreMax, preMax); 即每一步都分为抢当前的和不抢当前的两种情况。O(n), O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>x的平方根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现 int sqrt(int x) 函数。小数部分舍去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sqrtx/</t>
+  </si>
+  <si>
+    <t>数学、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 水平扫描法。先找前两个，前两个再跟第三个找LCS，以此类推。O(S),O(1). S为所有字符数量和。
+2. 逐个字符比较，复杂度一样，但是也很慢
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分治法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，类似归并排序一样。时间复杂度最坏情况下不变，空间O(mlog(n)),
+4. 二分查找法，用二分法找到最大长度L，时间O(Slog(n)), 空间O(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 二分检索,O(logn), O(1)
+2. 牛顿法, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报数序列是一个整数序列，按照其中的整数的顺序进行报数，得到下一个数。
+1.     1
+2.     11
+3.     21
+4.     1211
+5.     111221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常循环迭代即可，也可用递归，没什么意义的题，核心就是字符串处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-and-say/</t>
+  </si>
+  <si>
+    <t>给定一个大小为 n 的数组，找到其中的多数元素。多数元素是指在数组中出现次数大于 ⌊ n/2 ⌋ 的元素。</t>
+  </si>
+  <si>
+    <t>位运算、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>求众数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 摩尔投票法：直接设置一个buffer和一个count，如果下个数跟前一个一样则count++，否则--，count为0则更换buffer为当前数。O(n), O(1)
+2. 预排序，取中位数。O(nlogn), O(n)
+3. 哈希表，O(n), O(n)
+4. 分治法，求左右两边的众数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相交链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个程序，找到两个单链表相交的起始节点。</t>
+  </si>
+  <si>
+    <t>双指针法，O(n), O(1)
+根据原理 a + all + b = b + all + a
+顺序遍历，当a到结尾时从b头开始遍历，对b同理，如果一轮结束两者还没有共同交点，则无交点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>罗马数字转整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑IV,IX等等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
+    <t>实现subStr()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. KMP 算法
+2. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个函数，其作用是将输入的字符串反转过来。输入字符串以字符数组 char[] 的形式给出。
+不要给另外的数组分配额外的空间，你必须原地修改输入数组、使用 O(1) 的额外空间解决这一问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>创建一个哈希表，直接检索。第二轮要练习使用c++的哈希表配合字符串操作，熟悉stl，而不是只用if else</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接镜像互换就行了，算出目标位置，对应位置直接调换。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序数组转化为二叉搜索树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个按照升序排列的有序数组，转换为一棵高度平衡二叉搜索树。</t>
+  </si>
+  <si>
+    <t>1. 直接递归
+2. 别的没看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机 II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个数组，它的第 i 个元素是一支给定股票第 i 天的价格。
+设计一个算法来计算你所能获取的最大利润。你可以尽可能地完成更多的交易（多次买卖一支股票）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法，直接逢低买入，逢高卖出即可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +805,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,24 +1125,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="49.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="57.5" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -794,10 +1166,13 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" customHeight="1">
+    <row r="3" spans="1:9" ht="32" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -819,11 +1194,11 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4">
         <v>206</v>
       </c>
@@ -845,11 +1220,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51">
+    <row r="5" spans="1:9" ht="51">
       <c r="A5">
         <v>53</v>
       </c>
@@ -871,11 +1246,11 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34">
+    <row r="6" spans="1:9" ht="34">
       <c r="A6">
         <v>21</v>
       </c>
@@ -897,11 +1272,11 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51">
+    <row r="7" spans="1:9" ht="51">
       <c r="A7">
         <v>70</v>
       </c>
@@ -923,11 +1298,11 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34">
+    <row r="8" spans="1:9" ht="34">
       <c r="A8">
         <v>20</v>
       </c>
@@ -949,11 +1324,11 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="68">
+    <row r="9" spans="1:9" ht="68">
       <c r="A9">
         <v>88</v>
       </c>
@@ -975,11 +1350,11 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68">
+    <row r="10" spans="1:9" ht="68">
       <c r="A10">
         <v>121</v>
       </c>
@@ -1001,11 +1376,11 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34">
+    <row r="11" spans="1:9" ht="34">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1027,11 +1402,11 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="68">
+    <row r="12" spans="1:9" ht="68">
       <c r="A12">
         <v>202</v>
       </c>
@@ -1053,11 +1428,11 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33">
+    <row r="13" spans="1:9" ht="33">
       <c r="A13">
         <v>204</v>
       </c>
@@ -1079,17 +1454,487 @@
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="34">
+      <c r="A14">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68">
+      <c r="A15">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33">
+      <c r="A16">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="34">
+      <c r="A17">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="66">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34">
+      <c r="A19">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="136">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
+      <c r="A21">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="119">
+      <c r="A22">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32">
+      <c r="A23">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="119">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="119">
+      <c r="A25">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85">
+      <c r="A26">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
+      <c r="A29">
+        <v>344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34">
+      <c r="A30">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{347CD108-42E7-964F-B32D-C66F9380CC94}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{EEB3BC31-5FD0-3B4D-AAB8-E9BFC806510E}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{729FCC07-EBFB-C140-81D0-AB8926F5C5E4}"/>
-    <hyperlink ref="H9" r:id="rId4" xr:uid="{523CB403-9651-B441-87E1-FA5755A13E08}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{347CD108-42E7-964F-B32D-C66F9380CC94}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{EEB3BC31-5FD0-3B4D-AAB8-E9BFC806510E}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{729FCC07-EBFB-C140-81D0-AB8926F5C5E4}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{523CB403-9651-B441-87E1-FA5755A13E08}"/>
+    <hyperlink ref="I14" r:id="rId5" xr:uid="{F6053D66-0F51-D545-81A7-5DF6A34504CE}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{BD24304F-08C0-FC4D-84FC-EB64E0372C53}"/>
+    <hyperlink ref="I16" r:id="rId7" xr:uid="{CE9DC9C4-3B51-924C-BE0D-02F896C2BB5D}"/>
+    <hyperlink ref="I17" r:id="rId8" xr:uid="{1974A76A-5844-3B43-A1EF-B66821A29C09}"/>
+    <hyperlink ref="I18" r:id="rId9" xr:uid="{4BFFA33F-016E-774D-9430-13399C7C9B8A}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{D48253C1-237F-A548-BDF1-92D6111B10EB}"/>
+    <hyperlink ref="I20" r:id="rId11" xr:uid="{45356A84-D7EF-C949-9287-D390DF837C4A}"/>
+    <hyperlink ref="I21" r:id="rId12" xr:uid="{A9BD3054-A7E8-5741-AF2E-C746E8F2075C}"/>
+    <hyperlink ref="I22" r:id="rId13" xr:uid="{5E718CD3-026C-674A-89E1-EC5AC9F74CD4}"/>
+    <hyperlink ref="I23" r:id="rId14" xr:uid="{AD478E76-D09C-CD4F-92E7-1F75ABEF3CE5}"/>
+    <hyperlink ref="I24" r:id="rId15" xr:uid="{AA8B80CB-86B8-AB45-992E-11E100F3D20A}"/>
+    <hyperlink ref="I25" r:id="rId16" xr:uid="{8A47A2ED-28A6-4842-93CF-663769B6699F}"/>
+    <hyperlink ref="I26" r:id="rId17" xr:uid="{76E04A83-01B4-3342-9AE1-EE3E1D6599BC}"/>
+    <hyperlink ref="I28" r:id="rId18" xr:uid="{D837AB18-496B-9E4F-986D-FBFCF506171D}"/>
+    <hyperlink ref="I29" r:id="rId19" xr:uid="{066F1E11-4969-B840-BBDC-3A6D9D2C921E}"/>
+    <hyperlink ref="I30" r:id="rId20" xr:uid="{9A9DE549-F981-AF4E-AEFC-2B45CD10B54E}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{DF7997F5-2577-F445-A562-0017FCC8554B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD667-0131-AA41-8029-1F7A89B8E23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C3F29-D287-E140-8F7D-D8A5D5159787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="820" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="229">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,11 +661,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. KMP 算法
-2. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>反转字符串</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -715,6 +710,405 @@
   </si>
   <si>
     <t>贪心算法，直接逢低买入，逢高卖出即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个字符串是不是另一个的subString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. KMP 算法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. Sunday算法（未尝试）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 递归、或迭代
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 栈DFS、或队列BFS（第二轮要看一下）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两整数之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不使用运算符 + 和 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​​​​​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，计算两整数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​​​​​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a 、b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​​​​​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之和。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-of-two-integers/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>先算出不进位的结果，再算出进位的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序数组中的重复项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个排序数组，你需要在原地删除重复出现的元素，使得每个元素只出现一次，返回移除后数组的新长度。不适用额外空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，直接挪就可以了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>验证回文串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串，验证它是否是回文串，只考虑字母和数字字符，可以忽略字母的大小写。</t>
+  </si>
+  <si>
+    <t>双指针，直接一个头一个尾判断即可，注意用transform()函数先转换为小写，遇到空格跳过即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表中的节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表中的一个非尾节点的节点，但只给了该节点，而没有头指针。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑筋急转弯，把下一个node的值复制到当前node，将下一个node删除即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个数组的交集 II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、哈希表、双指针、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个数组，编写一个函数来计算它们的交集。</t>
+  </si>
+  <si>
+    <t>1. 预排序
+2. 哈希表，空间换时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/delete-node-in-a-linked-list</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome</t>
+  </si>
+  <si>
+    <t>字符串中的第一个唯一字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串，找到它的第一个不重复的字符，并返回它的索引。如果不存在，则返回 -1。</t>
+  </si>
+  <si>
+    <t>直接拿哈希表做就行了，时间O(n), 空间O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个数组，将数组中的元素向右移动 k 个位置，其中 k 是非负数。</t>
+  </si>
+  <si>
+    <t>方法很巧妙，先将数组反转，再将前k个和后n-k个分别反转即可。三次反转操作。时间O(n)，空间O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/rotate-array</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string</t>
+  </si>
+  <si>
+    <t>Excel表列序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个Excel表格中的列名称，返回其相应的列序号。</t>
+  </si>
+  <si>
+    <t>其实就是相当于26进制转10进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/excel-sheet-column-number/</t>
+  </si>
+  <si>
+    <t>阶乘后的0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数论题，第一次没想到。其实是数含5的因数的数量，而且对25，625..等5的幂要多算一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数 n，返回 n! 结果尾数中零的数量。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/factorial-trailing-zeroes/</t>
+  </si>
+  <si>
+    <t>移动零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个数组 nums，编写一个函数将所有 0 移动到数组的末尾，同时保持非零元素的相对顺序。</t>
+  </si>
+  <si>
+    <t>跟前边题号26一样。把后边的数都压缩到前边，最后的空位拿0填上就行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>缺失数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含 0, 1, 2, ..., n 中 n 个数的序列，找出 0 .. n 中没有出现在序列中的那个数。</t>
+  </si>
+  <si>
+    <t>位运算、数组、数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算出理论的和（根据size），再算出实际和，求差就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t>存在重复元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组，判断是否存在重复元素。</t>
+  </si>
+  <si>
+    <t>直接建哈希表，空间换时间。时间O(n), 空间O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>有效字母的异位词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个字符串 s 和 t ，编写一个函数来判断 t 是否是 s 的字母异位词(anagram)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 哈希表，空间换时间,O(n), O(n)
+2. 预排序，O(nlogn)，O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>加一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个由整数组成的非空数组所表示的非负整数，在该数的基础上加一。</t>
+  </si>
+  <si>
+    <t>关键是判断进位，逢9进一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/plus-one/</t>
+  </si>
+  <si>
+    <t>颠倒二进制位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒给定的 32 位无符号整数的二进制位。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-bits/</t>
+  </si>
+  <si>
+    <t>位1的个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个函数，输入是一个无符号整数，返回其二进制表达式中数字位数为 ‘1’ 的个数（也被称为汉明重量）。</t>
+  </si>
+  <si>
+    <t>建一个mask用与运算一位一位的取，把它放到该放的位置即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建一个mask用与运算一位一位取就行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>FizzBuzz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个程序，输出从 1 到 n 数字的字符串表示。
+1. 如果 n 是3的倍数，输出“Fizz”；
+2. 如果 n 是5的倍数，输出“Buzz”；
+3.如果 n 同时是3和5的倍数，输出 “FizzBuzz”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历三次，第一次在3的倍数上写Fizz，第二次在5的倍数上写Buzz，最后一次在什么都没有的字符串上写原数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>3的幂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数，写一个函数来判断它是否是 3 的幂次方。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/power-of-three/</t>
+  </si>
+  <si>
+    <t>return n &gt; 0 &amp;&amp; 1162261467%n == 0;
+那个数是int范围里最大的3的幂，只要某数能被其整除则一定是3的幂（等价条件）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +1116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -768,6 +1162,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -794,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +1217,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I31"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1793,18 +2204,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>130</v>
       </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
@@ -1824,7 +2244,7 @@
         <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1838,7 +2258,7 @@
         <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>97</v>
@@ -1847,16 +2267,16 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="34">
@@ -1864,7 +2284,7 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>89</v>
@@ -1873,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="68">
@@ -1890,25 +2310,516 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34">
+      <c r="A32">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17">
+      <c r="A33">
+        <v>371</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
+      <c r="A35">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34">
+      <c r="A36">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="34">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34">
+      <c r="A38">
+        <v>387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
+      <c r="A39">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17">
+      <c r="A40">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34">
+      <c r="A41">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34">
+      <c r="A42">
+        <v>283</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="34">
+      <c r="A43">
+        <v>268</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="34">
+      <c r="A44">
+        <v>271</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34">
+      <c r="A45">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34">
+      <c r="A46">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34">
+      <c r="A47">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
+      <c r="A48">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
+      <c r="A49">
+        <v>412</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
+      <c r="A50">
+        <v>326</v>
+      </c>
+      <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +2846,23 @@
     <hyperlink ref="I29" r:id="rId19" xr:uid="{066F1E11-4969-B840-BBDC-3A6D9D2C921E}"/>
     <hyperlink ref="I30" r:id="rId20" xr:uid="{9A9DE549-F981-AF4E-AEFC-2B45CD10B54E}"/>
     <hyperlink ref="I31" r:id="rId21" xr:uid="{DF7997F5-2577-F445-A562-0017FCC8554B}"/>
+    <hyperlink ref="I33" r:id="rId22" xr:uid="{2FCB0934-28B1-E248-BA6C-18C3A8EAF75A}"/>
+    <hyperlink ref="I32" r:id="rId23" xr:uid="{539DD77D-99D9-5A4A-B33E-A9EEC8C94C67}"/>
+    <hyperlink ref="I34" r:id="rId24" xr:uid="{B88A8284-5B6C-3B4A-B0F3-228E746CA903}"/>
+    <hyperlink ref="I37" r:id="rId25" xr:uid="{9A08525D-E280-884B-A11B-8030A31914ED}"/>
+    <hyperlink ref="I40" r:id="rId26" xr:uid="{2640BBF0-A458-4146-8DD7-FBB4B313D4DE}"/>
+    <hyperlink ref="I41" r:id="rId27" xr:uid="{AC8A11C7-57D7-1E4A-A8C9-65C1D808FE15}"/>
+    <hyperlink ref="I42" r:id="rId28" xr:uid="{436D8265-B9E4-4B46-9ABE-0DE8A159C4B4}"/>
+    <hyperlink ref="I43" r:id="rId29" xr:uid="{134323BC-3511-454A-9623-74827F18FD03}"/>
+    <hyperlink ref="I44" r:id="rId30" xr:uid="{A7B04F81-EB3D-9E4E-97A7-3AE5F25E0335}"/>
+    <hyperlink ref="I45" r:id="rId31" xr:uid="{D1A7093D-67BD-DF4C-81A1-60707B8AB1D6}"/>
+    <hyperlink ref="I46" r:id="rId32" xr:uid="{6A1E70F8-191B-4C48-8EB1-42623105358F}"/>
+    <hyperlink ref="I47" r:id="rId33" xr:uid="{6FDBC382-5FB3-B049-9BA5-91571370762B}"/>
+    <hyperlink ref="I48" r:id="rId34" xr:uid="{4F371AB4-A4D6-A94B-A9CE-5B4094D6DFFB}"/>
+    <hyperlink ref="I49" r:id="rId35" xr:uid="{2ADED626-54C8-AA4C-B97B-E33FA1F87333}"/>
+    <hyperlink ref="I50" r:id="rId36" xr:uid="{05CE4647-966E-DF48-8CA1-03A83C62482B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C3F29-D287-E140-8F7D-D8A5D5159787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B76C9-562E-634C-9EAF-76A84E068E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="820" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="344">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,7 +248,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>2. 厄拉多塞筛法</t>
     </r>
@@ -276,7 +275,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>双指针法从后往前，不需要使用额外空间</t>
     </r>
@@ -288,7 +286,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>使用栈读取</t>
     </r>
@@ -409,7 +406,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>2. 快慢指针，反转前半部分链表。O(n), O(1)</t>
     </r>
@@ -433,9 +429,6 @@
   </si>
   <si>
     <t>给定一个二叉树，找出其最大深度。</t>
-  </si>
-  <si>
-    <t>给定一个二叉树，检查它是否是镜像对称的。</t>
   </si>
   <si>
     <t>对称二叉树</t>
@@ -480,7 +473,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>2. 使用队列做迭代，O(n), O(n)，构建两个队列，以相反的顺序插入节点。</t>
     </r>
@@ -565,7 +557,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>分治法</t>
     </r>
@@ -730,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Sunday算法（未尝试）</t>
     </r>
@@ -753,7 +743,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>2. 栈DFS、或队列BFS（第二轮要看一下）</t>
     </r>
@@ -943,9 +932,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>给定一个Excel表格中的列名称，返回其相应的列序号。</t>
-  </si>
-  <si>
     <t>其实就是相当于26进制转10进制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1109,6 +1095,667 @@
   <si>
     <t>return n &gt; 0 &amp;&amp; 1162261467%n == 0;
 那个数是int范围里最大的3的幂，只要某数能被其整除则一定是3的幂（等价条件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、动态规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串 s，找到 s 中最长的回文子串</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>1. 中心扩展算法。每次从一个字符向左右两边扩张（分奇偶情况），发现左右不相等就停，以获得最长结果，比DP要好。O(n^2), O(1)
+2. 动态规划。先找到所有的一字母回文和二字母回文，再找三字母。。以此类推。O(n^2). O(1).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU缓存机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用你所掌握的数据结构，设计和实现一个  LRU (最近最少使用) 缓存机制。它应该支持以下操作： 获取数据 get 和 写入数据 put 。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>哈希链表(双链表），利用哈希表的查找时间O(1)和链表插入删除时间为O(1)的特点。在删除节点时一定要注意把哈希表中的节点也删掉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串，请你找出其中不含有重复字符的 最长子串 的长度。</t>
+  </si>
+  <si>
+    <t>1. 暴力法，纯暴力法O(n^3)必超时，如果用哈希表判断是否存在也要O(n^2)。
+2. 滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>最长上升子序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个无序的整数数组，找到其中最长上升子序列的长度。</t>
+  </si>
+  <si>
+    <t>1. 动态规划。公式：dp[i] = max(dp[j])+1，dp数组中存储从开始到当前数字i并且包括数字i能形成的LIS长度。
+2. 动态规划+二分查找。没看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence</t>
+  </si>
+  <si>
+    <t>两数相加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键在于处理逢9会进位的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>零钱兑换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定不同面额的硬币 coins 和一个总金额 amount。编写一个函数来计算可以凑成总金额所需的最少的硬币个数。如果没有任何一种硬币组合能组成总金额，返回 -1。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接动态规划即可，从1直到amount，dp[i] = min(dp[coins[0]] + 1, dp[coins[1]] + 1 ….)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">√√ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/coin-change/solution/ling-qian-dui-huan-by-leetcode/</t>
+  </si>
+  <si>
+    <t>三数之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含 n 个整数的数组 nums，判断 nums 中是否存在三个元素 a，b，c ，使得 a + b + c = 0 ？找出所有满足条件且不重复的三元组。
+答案中不可以包含重复的三元组。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预排序。之后按顺序每次选一个数，然后再从剩余数里用双指针法选后两个数。本题关键在于如何去重。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一组非负整数，重新排列它们的顺序使之组成一个最大的整数。结果用字符串表示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义比较函数来进行排序，当ab&gt;ba时a应该放在b之前，反之a放在b之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/largest-number/</t>
+  </si>
+  <si>
+    <t>螺旋矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按层向内循环即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定一个没有重复数字的序列，返回其所有可能的全排列。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>有序矩阵中第k小的元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个 n x n 矩阵，其中每行和每列元素均按升序排序，找到矩阵中第k小的元素。
+请注意，它是排序后的第k小元素，而不是第k个元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kth-smallest-element-in-a-sorted-matrix/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/spiral-matrix/</t>
+  </si>
+  <si>
+    <t>给出两个 非空 的链表用来表示两个非负的整数。其中，它们各自的位数是按照 逆序 的方式存储的，并且它们的每个节点只能存储 一位 数字。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含 m x n 个元素的矩阵（m 行, n 列），请按照顺时针螺旋顺序，返回矩阵中的所有元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个Excel表格中的列名称，返回其相应的列序号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 O(n log n) 时间复杂度和常数级空间复杂度下，对链表进行排序。</t>
+  </si>
+  <si>
+    <t>排序、链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 直接暴力排序，但是相当于丢失了矩阵原有的顺序信息。O(nlogn)，空间O(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分查找（没懂）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>3. n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路归并，实现出来比暴力法还慢，其实也丢失了信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小堆（没懂）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-list/</t>
+  </si>
+  <si>
+    <t>自底向上的归并排序，难点在于需要对链表反复断链和拼接。关键在于cut() 和 merge() 两个操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛水最多的容器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定 n 个非负整数 a1，a2，...，an，每个数代表坐标中的一个点 (i, ai) 。在坐标内画 n 条垂直线，垂直线 i 的两个端点分别为 (i, ai) 和 (i, 0)。找出其中的两条线，使得它们与 x 轴共同构成的容器可以容纳最多的水。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 暴力法。可以AC，时间很长。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双指针法。其实就是一种贪心方法，从两侧出发，每次将较短的板向内移动一格。因为向内移动长板必然不会使容积增大，但移动短板可能会使容积增大。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>数组中第k个最大元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <t>在未排序的数组中找到第 k 个最大的元素。请注意，你需要找的是数组排序后的第 k 个最大的元素，而不是第 k 个不同的元素。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 暴力法。O(nlogn)，O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">使用最小堆，每当堆大小大于k，推出当前最小元素，O(nlogk)，空间O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速选择算法（类似快排）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，时间平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>O(n),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>O(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个由 '1'（陆地）和 '0'（水）组成的的二维网格，计算岛屿的数量。一个岛被水包围，并且它是通过水平方向或垂直方向上相邻的陆地连接而成的。你可以假设网格的四个边均被水包围。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. BFS
+2. DFS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并查集</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>解码方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题干略
+输入: "226"
+输出: 3
+解释: 它可以解码为 "BZ" (2 26), "VF" (22 6), 或者 "BBF" (2 2 6) 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划。比较容易，公式为dp[i] = dp[i-1]+dp[i-2]，如果s(i)和s(i-1,i)均为合法数字的情况下。需要注意的是当字符串以0开头或中间的某个0前的数大于2，则无法解码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-ways/</t>
+  </si>
+  <si>
+    <t>删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表，删除链表的倒数第 n 个节点，并且返回链表的头结点。
+进阶：只使用一趟扫描实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一趟扫描，双指针，设置dummyhead, 一个指针先走n步，另一个后出发，当第一个指针到了null时，慢指针的next即为要删除的节点。(其实在n之前的每个节点依然被访问了两次，跟两趟遍历差不多，复杂度完全相同，感觉没什么意义）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设按照升序排序的数组在预先未知的某个点上进行了旋转。( 例如，数组 [0,1,2,4,5,6,7] 可能变为 [4,5,6,7,0,1,2] )。
+搜索一个给定的目标值，如果数组中存在这个目标值，则返回它的索引，否则返回 -1 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 二分查找直接搜索目标值，其实就是注意划分条件，确定好应该往左找还是往右找。
+2. 二分查找寻找旋转轴，然后判断应该在哪个区域做二分查找，思路简单但实现比较麻烦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>完全平方数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定正整数 n，找到若干个完全平方数（比如 1, 4, 9, 16, ...）使得它们的和等于 n。你需要让组成和的完全平方数的个数最少。</t>
+  </si>
+  <si>
+    <t>这里我只想出了O(n^2)的DP算法，超时。
+实际上内层循环只需要考虑完全平方数就行了，所以应为O(nsqrt(n))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/perfect-squares/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">× </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并区间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出一个区间的集合，请合并所有重叠的区间。
+输入: [[1,4],[4,5]]
+输出: [[1,5]]
+解释: 区间 [1,4] 和 [4,5] 可被视为重叠区间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没什么说的，直接按区间的第一个数排序，再逐个把能合并的合并就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>BFS、DFS、并查集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、回溯算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出 n 代表生成括号的对数，请你写出一个函数，使其能够生成所有可能的并且有效的括号组合。</t>
+  </si>
+  <si>
+    <t>直接回溯算法，剪枝的判断条件为：如果右括号数量大于左括号则剪掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个高效的算法来搜索 m x n 矩阵 matrix 中的一个目标值 target。该矩阵具有以下特性：
+每行的元素从左到右升序排列。
+每列的元素从上到下升序排列。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 暴力法 O(mn)。忽略了有序信息
+2. 二分查找。O(nlgn)，分四块，递归搜索
+3. 从角落开始迭代，一步一步挪动，非常巧妙的方法。O(m+n)
+选左上角，往右走和往下走都增大，不能选
+选右下角，往上走和往左走都减小，不能选
+选左下角，往右走增大，往上走减小，可选
+选右上角，往下走增大，往左走减小，可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">√ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-a-2d-matrix-ii/</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，返回它的中序 遍历。</t>
+  </si>
+  <si>
+    <t>1. 递归，很简单，先左后中最后右。类似回溯算法
+2. 迭代。用栈辅助，每次一直将左节点压入栈中，遍历完当前节点再去遍历右子节点，继续将右子节点的左节点不断压栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个仅包含数字 2-9 的字符串，返回所有它能表示的字母组合。(参照九宫格键盘）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是标准的回溯算法、套模板即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>给定一个二叉树，检查它是否是镜像对称的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1151,7 +1798,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1174,6 +1820,35 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1202,23 +1877,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,1291 +2241,2002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I50"/>
+  <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="63" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="17">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32" customHeight="1">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>121</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="34">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>202</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33">
-      <c r="A13">
+    <row r="13" spans="1:9" ht="34">
+      <c r="A13" s="6">
         <v>204</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>141</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33">
-      <c r="A16">
+    <row r="16" spans="1:9" ht="34">
+      <c r="A16" s="6">
         <v>234</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="34">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
+      <c r="A18" s="6">
+        <v>101</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34">
+      <c r="A19" s="6">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="66">
-      <c r="A18">
+      <c r="H19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="136">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
+      <c r="A21" s="6">
+        <v>136</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="119">
+      <c r="A22" s="6">
+        <v>198</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="34">
+      <c r="A23" s="6">
+        <v>69</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="119">
+      <c r="A24" s="6">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="119">
+      <c r="A25" s="6">
+        <v>169</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85">
+      <c r="A26" s="6">
+        <v>160</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34">
+      <c r="A27" s="6">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="51">
+      <c r="A28" s="6">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
+      <c r="A29" s="6">
+        <v>344</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34">
+      <c r="A30" s="6">
+        <v>108</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31" s="6">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34">
+      <c r="A32" s="6">
+        <v>108</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17">
+      <c r="A33" s="6">
+        <v>371</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="34">
-      <c r="A19">
+      <c r="H33" s="6"/>
+      <c r="I33" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
+      <c r="A34" s="6">
+        <v>26</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
+      <c r="A35" s="6">
+        <v>125</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34">
+      <c r="A36" s="6">
+        <v>237</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="34">
+      <c r="A37" s="6">
+        <v>350</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34">
+      <c r="A38" s="6">
+        <v>387</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
+      <c r="A39" s="6">
+        <v>189</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="29" customHeight="1">
+      <c r="A40" s="6">
+        <v>171</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34">
+      <c r="A41" s="6">
+        <v>172</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34">
+      <c r="A42" s="6">
+        <v>283</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="34">
+      <c r="A43" s="6">
+        <v>268</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="34">
+      <c r="A44" s="6">
+        <v>271</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34">
+      <c r="A45" s="6">
+        <v>242</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34">
+      <c r="A46" s="6">
+        <v>66</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34">
+      <c r="A47" s="6">
+        <v>190</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
+      <c r="A48" s="6">
+        <v>191</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
+      <c r="A49" s="6">
+        <v>412</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
+      <c r="A50" s="6">
+        <v>326</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="78" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="97" customHeight="1">
+      <c r="A52" s="6">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51">
+      <c r="A53" s="9">
+        <v>146</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
+      <c r="A54" s="6">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="68">
+      <c r="A55" s="6">
+        <v>300</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="74" customHeight="1">
+      <c r="A57" s="6">
+        <v>322</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="68">
+      <c r="A58" s="7">
+        <v>15</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
+      <c r="A59" s="7">
+        <v>46</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="34">
+      <c r="A60" s="6">
+        <v>179</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34">
+      <c r="A61" s="6">
+        <v>54</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="97" customHeight="1">
+      <c r="A62" s="6">
+        <v>378</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34">
+      <c r="A63" s="7">
+        <v>148</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="85">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="85">
+      <c r="A65" s="1">
+        <v>215</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="68">
+      <c r="A66" s="3">
+        <v>200</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="85">
+      <c r="A67" s="1">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="85">
+      <c r="A68" s="1">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="68">
+      <c r="A69" s="1">
+        <v>33</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="51">
+      <c r="A70" s="1">
+        <v>279</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68">
+      <c r="A71" s="1">
+        <v>56</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="160">
+      <c r="A73" s="1">
+        <v>240</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="85">
+      <c r="A74" s="1">
         <v>94</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B74" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="34">
+      <c r="A75" s="1">
+        <v>17</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="136">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
-      <c r="A21">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="119">
-      <c r="A22">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="32">
-      <c r="A23">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="119">
-      <c r="A24">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="119">
-      <c r="A25">
-        <v>169</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="85">
-      <c r="A26">
-        <v>160</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="33">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68">
-      <c r="A29">
-        <v>344</v>
-      </c>
-      <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34">
-      <c r="A30">
-        <v>108</v>
-      </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
-      <c r="A31">
-        <v>122</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34">
-      <c r="A32">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17">
-      <c r="A33">
-        <v>371</v>
-      </c>
-      <c r="B33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
-      <c r="A35">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="34">
-      <c r="A36">
-        <v>237</v>
-      </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="34">
-      <c r="A37">
-        <v>350</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="34">
-      <c r="A38">
-        <v>387</v>
-      </c>
-      <c r="B38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
-      <c r="A39">
-        <v>189</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17">
-      <c r="A40">
-        <v>171</v>
-      </c>
-      <c r="B40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="34">
-      <c r="A41">
-        <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34">
-      <c r="A42">
-        <v>283</v>
-      </c>
-      <c r="B42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34">
-      <c r="A43">
-        <v>268</v>
-      </c>
-      <c r="B43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="34">
-      <c r="A44">
-        <v>271</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34">
-      <c r="A45">
-        <v>242</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="34">
-      <c r="A46">
-        <v>66</v>
-      </c>
-      <c r="B46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34">
-      <c r="A47">
-        <v>190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
-      <c r="A48">
-        <v>191</v>
-      </c>
-      <c r="B48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
-      <c r="A49">
-        <v>412</v>
-      </c>
-      <c r="B49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
-      <c r="A50">
-        <v>326</v>
-      </c>
-      <c r="B50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="I75" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:9" ht="19">
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:9" ht="19">
+      <c r="F79" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2861,6 +4277,29 @@
     <hyperlink ref="I48" r:id="rId34" xr:uid="{4F371AB4-A4D6-A94B-A9CE-5B4094D6DFFB}"/>
     <hyperlink ref="I49" r:id="rId35" xr:uid="{2ADED626-54C8-AA4C-B97B-E33FA1F87333}"/>
     <hyperlink ref="I50" r:id="rId36" xr:uid="{05CE4647-966E-DF48-8CA1-03A83C62482B}"/>
+    <hyperlink ref="I52" r:id="rId37" xr:uid="{56D06695-5D15-E243-A3E9-3C3764F61C8B}"/>
+    <hyperlink ref="I53" r:id="rId38" xr:uid="{10802715-6C55-A749-BE7D-04FD97B8A84F}"/>
+    <hyperlink ref="I54" r:id="rId39" xr:uid="{8A6DB2B8-6147-224A-85A2-5D6543F29DDA}"/>
+    <hyperlink ref="I56" r:id="rId40" xr:uid="{2EC71B1F-7CDB-5346-B4E9-77FA3E46A7BF}"/>
+    <hyperlink ref="I57" r:id="rId41" xr:uid="{2B2E8B8F-0A57-D14F-A511-9C27FDB41404}"/>
+    <hyperlink ref="I58" r:id="rId42" xr:uid="{0A921BCE-8D13-A348-AA4E-2C1848B3300E}"/>
+    <hyperlink ref="I60" r:id="rId43" xr:uid="{D49B6F2B-4BF1-D344-A7A8-00A3BD014DE3}"/>
+    <hyperlink ref="I59" r:id="rId44" xr:uid="{7F3F72E3-8DCD-A940-AE00-266FE3282D24}"/>
+    <hyperlink ref="I62" r:id="rId45" xr:uid="{6570C62B-EBD6-C345-A1C8-8730049EC75D}"/>
+    <hyperlink ref="I61" r:id="rId46" xr:uid="{AE8A3BA5-3AEB-E740-883F-60D4C68AD8EF}"/>
+    <hyperlink ref="I63" r:id="rId47" xr:uid="{A0E7F87E-5762-0240-92A3-151F3BD70B28}"/>
+    <hyperlink ref="I64" r:id="rId48" xr:uid="{663A01BF-5359-1840-B738-7AE8EB25DF5F}"/>
+    <hyperlink ref="I65" r:id="rId49" xr:uid="{E5F7D7CA-5EA8-614F-A752-02B5DD62160C}"/>
+    <hyperlink ref="I66" r:id="rId50" xr:uid="{3B75AE1E-D981-4346-BD45-EE14C7FE1ABC}"/>
+    <hyperlink ref="I67" r:id="rId51" xr:uid="{F4425CE2-2E4A-C541-A0D3-E7FB676DC1DC}"/>
+    <hyperlink ref="I69" r:id="rId52" xr:uid="{034D132E-0AC7-A54C-827B-217B8346D3E8}"/>
+    <hyperlink ref="I68" r:id="rId53" xr:uid="{CECD3921-49CC-2C46-B156-DFC25E6634F5}"/>
+    <hyperlink ref="I70" r:id="rId54" xr:uid="{44D882DD-A208-3A46-AF30-B537B46F36A3}"/>
+    <hyperlink ref="I71" r:id="rId55" xr:uid="{D6BBF4B8-6DE6-B44C-BE9A-59F748503344}"/>
+    <hyperlink ref="I72" r:id="rId56" xr:uid="{F7A37C63-2DA6-5741-BB36-AD325FD48EEC}"/>
+    <hyperlink ref="I73" r:id="rId57" xr:uid="{B5B031F8-BDFC-FB4D-9668-7B91E783BB9A}"/>
+    <hyperlink ref="I74" r:id="rId58" xr:uid="{E390BB61-119F-074F-A4CF-39EB53A60739}"/>
+    <hyperlink ref="I75" r:id="rId59" xr:uid="{7DAABFD6-9F43-304A-AE71-4B5A2B8D0A61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B76C9-562E-634C-9EAF-76A84E068E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E826D-754D-5441-BE11-210B627D29EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -2243,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
   <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E826D-754D-5441-BE11-210B627D29EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DB438-9E12-0747-BDB5-D821A6CFA600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="3280" yWindow="1220" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="572">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1720,6 +1720,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>二分查找、分治法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1757,6 +1761,1149 @@
   <si>
     <t>给定一个二叉树，检查它是否是镜像对称的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树, 找到该树中两个指定节点的最近公共祖先。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>递归遍历，使用字典存储每个节点的父指针，并用一个字典存储每个节点的深度。然后双指针从两个节点向上搜即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、数组、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一组不含重复元素的整数数组 nums，返回该数组所有可能的子集（幂集）。</t>
+  </si>
+  <si>
+    <t>套模板直接回溯就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>基本计算器II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现一个基本的计算器来计算一个简单的字符串表达式的值。</t>
+  </si>
+  <si>
+    <t>使用栈、一个存符号，一个存数字
+中缀转后缀：
+- 数字直接输出到后缀表达式
+- 栈为空时，遇到运算符，直接入栈
+- 遇到运算符，弹出所有优先级大于或等于该运算符的栈顶元素，并将该运算符入栈
+- 合并两个栈，即生成了后缀表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/basic-calculator-ii/</t>
+  </si>
+  <si>
+    <t>乘积最大子序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组 nums ，找出一个序列中乘积最大的连续子序列（该序列至少包含一个数）。</t>
+  </si>
+  <si>
+    <t>要注意一个负负得正的问题，这里需要存两个dp数组，一个存 当前的最小乘积，一个存当前最大乘积，不断更新到最后即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-product-subarray/</t>
+  </si>
+  <si>
+    <t>字符串转整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你来实现一个 atoi 函数，使其能将字符串转换成整数。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/string-to-integer-atoi/</t>
+  </si>
+  <si>
+    <t>难点在于处理空格、非字符符号、负号等情况。看着简单写起来麻烦，浪费时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非负整数数组，你最初位于数组的第一个位置。
+数组中的每个元素代表你在该位置可以跳跃的最大长度。
+判断你是否能够到达最后一个位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是简单的贪心算法，当遇到0的时候，看0前边的数够不够跳过这些0就行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>从前序和中序遍历中构造二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如题，树中没有重复元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归实现，有点像分治法、从前序遍历拿到根节点，从中序遍历拿到左子树和右子树，一点一点向下递归即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>复制带随机指针的链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表，每个节点包含一个额外增加的随机指针，该指针可以指向链表中的任何节点或空节点。
+要求返回这个链表的深拷贝。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>两个哈希表、一个是反向的， 存每个节点被哪些节点所指（存下标）。另一个存复制后的每个节点应该指向第几个节点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 分治法，多路归并，实现起来有些慢，相当于还是丢失了信息。
+2. 二分查找？
+3. 从右上或左下开始找，不断往固定的方向走，直到找到为止，复杂度O(m+n)，非常巧妙'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、回溯算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二维网格和一个单词，找出该单词是否存在于网格中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接套回溯算法模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>二叉树的层次遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、广度优先搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，返回其按层次遍历的节点值。 （即逐层地，从左到右访问所有节点）。</t>
+  </si>
+  <si>
+    <t>1. 按层遍历，直接用数组存每一层的节点
+2. 用队列实现一个BFS，同时要存每个节点的深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>旋转图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个 n × n 的二维矩阵表示一个图像。
+将图像顺时针旋转 90 度。 必须使用原地算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个很巧妙的办法是，先将矩阵转置，再reverse每一行即可。时间复杂度O(n^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>二叉树的锯齿形层次遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、树、广度优先搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，返回其节点值的锯齿形层次遍历。（即先从左往右，再从右往左进行下一层遍历，以此类推，层与层之间交替进行）。</t>
+  </si>
+  <si>
+    <t>正常按层次遍历，然后输出时一行正一行反就行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>实现Trie 前缀树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、字典树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现一个 Trie (前缀树)，包含 insert, search, 和 startsWith 这三个操作。</t>
+  </si>
+  <si>
+    <t>树中的每个节点，TrieNode，都要维护一个字典，&lt;char, TrieNode*&gt;， 来存储所有的子节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>单词拆分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非空字符串 s 和一个包含非空单词列表的字典 wordDict，判定 s 是否可以被空格拆分为一个或多个在字典中出现的单词。</t>
+  </si>
+  <si>
+    <t>维护一个dp数组来存储到当前字符为止，能否是一个可拆分的单词，对于每个新来的字母，向前搜索所有dp为true的字符作为断点，看截止到当前字母能否返回一个可拆分的词。时间复杂度O(n^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-break/</t>
+  </si>
+  <si>
+    <t>前k个高频元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非空的整数数组，返回其中出现频率前 k 高的元素。你的算法的时间复杂度必须优于 O(n log n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先构建一个&lt;数字, 出现次数&gt;的哈希表。
+构建一个优先队列，将哈希表做排序，然后取队列的前k个数字即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>寻找重复数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、双指针、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">给定一个包含 n + 1 个整数的数组 nums，其数字都在 1 到 n 之间（包括 1 和 n），可知至少存在一个重复的整数。假设只有一个重复的整数，找出这个重复的数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要求：原地算法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空间，时间小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>O(nlogn)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个题的二分查找是要对范围n做二分查找，而不是对原数组。对于1~n范围的数，遍历整个数组，看小于该数的数的数量和大于该数的数的数量是否是理想的，如果不满足条件，则Pivot就是要找的数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>不同路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个机器人位于一个 m x n 网格的左上角 （起始点在下图中标记为“Start” ）。
+机器人每次只能向下或者向右移动一步。机器人试图达到网格的右下角（在下图中标记为“Finish”）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左上到右下做动态规划即可，dpMatrix中储存的数字为从起点到该点一共有多少种走法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>打乱数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newList = copy.deepcopy(self.originalList)
+random.shuffle(newList)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shuffle-an-array/</t>
+  </si>
+  <si>
+    <t>至少有K个重复字符的最长子串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到给定字符串（由小写字符组成）中的最长子串 T ， 要求 T 中的每一字符出现次数都不少于 k 。输出 T 的长度。</t>
+  </si>
+  <si>
+    <t>打乱一个没有重复元素的数组。
+垃圾题，直接拿python写了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要用递归解法，分治，每次用不可能出现在结果中的字符将字符串分割为两部分或直接n部分，然后对这n部分做递归，即可找到最长结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-with-at-least-k-repeating-characters/</t>
+  </si>
+  <si>
+    <t>分割回文串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串 s，将 s 分割成一些子串，使每个子串都是回文串。要求返回所有的分割方案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯算法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>寻找峰值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数组的任意一个峰值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找。如果当前数处于上升状态，则往右边找，如果处于下降状态，则往左边找，注意处理头尾的特殊情况即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-peak-element/</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现pow(x, n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>快速幂算法。根据x^n = x^(n/2) * x^(n/2)，递归也可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看死细胞活细胞的题，状态转换。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/game-of-life/solution/ren-sheng-ku-duan-de-yuan-di-biao-ji-suan-fa-java0/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原地标记算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，-1记为即将复活，0记为当前死下个状态还死，1记为当前活下个状态继续活，2记为当前活下个状态死。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序数组中查找某元素的第一个和最后一位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找的经典题型。分别找到左边界和右边界。这个题很值得多练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
+  </si>
+  <si>
+    <t>会议室II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、排序、贪心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个会议时间安排的数组，每个会议时间都会包括开始和结束的时间 [[s1,e1],[s2,e2],...] (si &lt; ei)，为避免会议冲突，同时要考虑充分利用会议室资源，请你计算至少需要多少间会议室，才能满足这些会议安排。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序后遍历所有区间，将冲突的单独拎出来继续遍历，直到没有冲突为止。遍历的次数就是需要的会议室的数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/meeting-rooms-ii/</t>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定课程总量以及它们的先决条件，判断是否可能完成所有课程的学习？</t>
+  </si>
+  <si>
+    <t>经典的拓扑排序问题。可以先根据adjList生成adjMatrix，再进行拓扑排序即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>被围绕的区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二维的矩阵，包含 'X' 和 'O'（字母 O）。
+找到所有被 'X' 围绕的区域，并将这些区域里所有的 'O' 用 'X' 填充。
+被围绕的区间不会存在于边界上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接用BFS、以所有边界上的O为起点进行BFS，将不需要转换为X的O打上标记，这样其他剩下的O就是跟边界无任何连通的，将剩下的O置为X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>奇偶链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先找到尾部，将尾部链到偶数个节点位置。分奇偶情况讨论。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>判定井字棋胜负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有没有可能将每一步的 move() 操作优化到比 O(n2) 更快吗?</t>
+  </si>
+  <si>
+    <t>每当有人落子后，检查该子对应的横、竖、斜行进行检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-tic-tac-toe/</t>
+  </si>
+  <si>
+    <t>四数相加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定四个包含整数的数组列表 A , B , C , D ,计算有多少个元组 (i, j, k, l) ，使得 A[i] + B[j] + C[k] + D[l] = 0。</t>
+  </si>
+  <si>
+    <t>1. 将AB中的两两之和存下，将CD中两两之和存下，就转换为了两数之和问题。O(n^2)
+2. 二分查找不知道怎么做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problemset/top/?difficulty=%E4%B8%AD%E7%AD%89</t>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定每一步的收益和开销，判断能否从某一个点出发，走完整一圈。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 暴力算， O(n^2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一次遍历。从编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始，所有站里的油总量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车子总油耗。如果刚好在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>k+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站没油，将起点设置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>k+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个单链表，把所有的奇数节点和偶数节点分别排在一起。请注意，这里的奇数节点和偶数节点指的是节点编号的奇偶性，而不是节点的值的奇偶性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树中第k小的元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉搜索树，编写一个函数 kthSmallest 来查找其中第 k 个最小的元素。</t>
+  </si>
+  <si>
+    <t>中序遍历，中序遍历的输出顺序刚好就是有小到大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>有效的数独</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查数独是否有冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护三个哈希表的List，9个行表，9个列表，9个块表，遍历一遍整个矩阵，分别做冲突检查，再检查主从对角线。时间复杂度O(n^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>逆波兰表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈的经典用法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串数组，将字母异位词组合在一起。字母异位词指字母相同，但排列不同的字符串。</t>
+  </si>
+  <si>
+    <t>送分题。直接对每个字符串按字典序排序然后放到哈希表里即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>扁平化嵌套列表迭代器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个嵌套的整型列表。设计一个迭代器，使其能够遍历这个整型列表中的所有整数。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flatten-nested-list-iterator/</t>
+  </si>
+  <si>
+    <t>这里用递归做会简单一些。。用栈稍微麻烦。说是迭代器，但是题解中的人都是在构造迭代器的时候就把所有的数都读取完存到数组里了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除自身以外数组的乘积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求不能使用除法，时间O(n)，空间O(1)，输出数组不视为额外空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次遍历，先算每个数左侧的累积，再反向遍历一次算出每个数右侧的累积。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <t>颜色分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含红色、白色和蓝色，一共 n 个元素的数组，原地对它们进行排序，使得相同颜色的元素相邻，并按照红色、白色、蓝色顺序排列。
+能否想出只用常数空间的一趟扫描法？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接哈希表存一下不就行？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，判断其是否是一个有效的二叉搜索树。</t>
+  </si>
+  <si>
+    <t>这里不能想当然的认为对每个节点单独判断，root.val &gt; root.left.val &amp;&amp; root.val &lt; root.right.val就行了，因为右子树也可能有小于root的数，所以在递归的时候，要跟踪记录该节点应该满足的上界和下界。左子树的上界为root.val，右子树的下界为root.val，任何越界的值都不行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>搜寻名人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个 邻接表，在尽可能小的时间复杂度基础上，找到一个入度为n-1，出度为0的点。（除了自身不指向自身，其他点都指向它）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 暴力法，对每个点进行一次行遍历和一次列遍历。时间复杂度O(n^2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贪心。先假设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为名人候选人，遍历其它人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果候选人认识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则修改候选人为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。最后验证候选人是否是名人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-celebrity/solution/277-sou-xun-ming-ren-by-guohaoding/</t>
+  </si>
+  <si>
+    <t>给定一个 m x n 的矩阵，如果一个元素为 0，则将其所在行和列的所有元素都设为 0。请使用原地算法。</t>
+  </si>
+  <si>
+    <t>1. 可以将即将需要被设置为0的点一个特殊标记（极大或极小的数）但是  对c++很不友好。
+2. 将需要设置为0的行或列的行首或者列首置0以作为标记。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>矩阵置零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常数时间插入、删除和获取随机元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、数组、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找时间为O(1)，明显只有哈希表才能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/insert-delete-getrandom-o1/</t>
+  </si>
+  <si>
+    <t>单词接龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个单词（beginWord 和 endWord）和一个字典，找到从 beginWord 到 endWord 的最短转换序列的长度。转换需遵循如下规则：
+每次转换只能改变一个字母。
+转换过程中的中间单词必须是字典中的单词。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先存下来哪些词能被转换为哪些词，用作查询字典。然后直接BFS在字典上搜就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-ladder/</t>
+  </si>
+  <si>
+    <t>填充每个节点的下一个右侧节点指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定一个完美二叉树，其所有叶子节点都在同一层，每个父节点都有两个子节点。
+填充它的每个 next 指针，让这个指针指向其下一个右侧节点。如果找不到下一个右侧节点，则将 next 指针设置为 NULL。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接递归做了。
+对每个节点，连接其左右两个子节点，并连接左子节点的左右子节点，左子节点的右子节点和右子节点的左子节点，右子节点的左右子节点。即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>课程表II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>207题为判断题，看能否返回一个拓扑排序。这道题要求返回一个合理的拓扑排序结果，稍加修改即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>递增的三元子序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护一个大小为3的子序列数组，使子序列尽量小。当前数字为{1, 4}，如果遇到2 ，则更新为{1, 2}； 当前数字为{2, 4}，如果遇到1，则更新为{1,4}，4的存在其实不要紧，会被替换掉的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个未排序的数组，判断这个数组中是否存在长度为 3 的递增子序列。
+要求时间复杂度O(n), 空间O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t>二叉搜索树的顺序后继</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你一个二叉搜索树和其中的某一个结点，请你找出该结点在树中顺序后继的节点。</t>
+  </si>
+  <si>
+    <t>牢记：二叉搜索树的中序遍历的结果就是其中的元素按大小顺序输出的结果。
+此题只要按中序遍历顺序，记录下上一个访问的节点，如果上一个访问的节点就是要找的，那当前节点即为要找的结果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/inorder-successor-in-bst/</t>
+  </si>
+  <si>
+    <t>展开二维向量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设计并实现一个能够展开二维向量的迭代器。该迭代器需要支持 next 和 hasNext 两种操作。、</t>
+  </si>
+  <si>
+    <t>题目341中，题解的人都是直接存，到这里又开始搞正经的迭代器了，扯淡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flatten-2d-vector/</t>
+  </si>
+  <si>
+    <t>直线上最多的点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二维平面，平面上有 n 个点，求最多有多少个点在同一条直线上。</t>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据点斜式，循环遍历所有的点，对每个点，找到以该点出发，斜率相同的点的数量，存到hashMap里，最后找最大值即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-points-on-a-line/</t>
+  </si>
+  <si>
+    <t>接雨水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、数组、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定 n 个非负整数表示每个宽度为 1 的柱子的高度图，计算按此排列的柱子，下雨之后能接多少雨水。两边不计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈的巧妙应用。想起来有点复杂。
+1. 按顺序遍历每颗柱子
+2. 当前柱子高度小于或等于栈顶柱子高度，把下标压入栈中（为了计算宽度用）
+3. 当前柱子高度大于栈顶柱子高度，将栈顶元素弹出，获取其高度，该高度即为洼地的高度，蓄水量=宽*高，这里的高是该洼地两边的最小高度，宽则是两边下标的差值。然后继续循环检查，直到栈空或栈顶柱子高度小于等于当前柱子高度（没有洼地了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>合并K个排序链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、链表、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 尝试了直接的多路归并，O(Nlogk)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先队列，也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>O(Nlogk)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>二叉树中的最大路径和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题中，路径被定义为一条从树中任意节点出发，达到任意节点的序列。该路径至少包含一个节点，且不一定经过根节点。</t>
+  </si>
+  <si>
+    <t>可以直接上递归，递归计算左右两子树能带来的最大收益。
+1. 包含当前节点的路径的最大和 = max(根值+左侧最大收益+右侧最大收益， 根值+左侧最大收益，根植+右侧最大收益).  
+2. 当前节点能为父节点带去的最大收益 = max(根值， 根值+左侧最大收益，根植+右侧最大收益)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,6 +3071,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,10 +3391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I79"/>
+  <dimension ref="A2:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2707,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>92</v>
@@ -4156,7 +5306,7 @@
         <v>328</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>229</v>
@@ -4182,22 +5332,22 @@
         <v>333</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="34">
@@ -4205,7 +5355,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>324</v>
@@ -4214,29 +5364,1373 @@
         <v>229</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:9" ht="19">
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:9" ht="19">
-      <c r="F79" s="14"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51">
+      <c r="A76" s="1">
+        <v>236</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="119">
+      <c r="A78" s="1">
+        <v>227</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="51">
+      <c r="A79" s="1">
+        <v>152</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34">
+      <c r="A80" s="1">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="51">
+      <c r="A81" s="1">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="51">
+      <c r="A82" s="1">
+        <v>105</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="51">
+      <c r="A83" s="1">
+        <v>138</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="85">
+      <c r="A84" s="1">
+        <v>240</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="34">
+      <c r="A85" s="1">
+        <v>79</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="51">
+      <c r="A86" s="1">
+        <v>102</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34">
+      <c r="A87" s="3">
+        <v>48</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="51">
+      <c r="A88" s="1">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34">
+      <c r="A89" s="1">
+        <v>208</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="85">
+      <c r="A90" s="1">
+        <v>139</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="51">
+      <c r="A91" s="1">
+        <v>347</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="85">
+      <c r="A92" s="3">
+        <v>287</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="68">
+      <c r="A93" s="1">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="34">
+      <c r="A94" s="1">
+        <v>384</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="51">
+      <c r="A95" s="1">
+        <v>395</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="34">
+      <c r="A96" s="1">
+        <v>131</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="51">
+      <c r="A97" s="1">
+        <v>162</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="34">
+      <c r="A98" s="3">
+        <v>50</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="51">
+      <c r="A99" s="1">
+        <v>289</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="34">
+      <c r="A100" s="3">
+        <v>34</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="68">
+      <c r="A101" s="1">
+        <v>253</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="34">
+      <c r="A102" s="1">
+        <v>207</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="68">
+      <c r="A103" s="1">
+        <v>130</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="51">
+      <c r="A104" s="1">
+        <v>328</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="34">
+      <c r="A105" s="1">
+        <v>348</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="51">
+      <c r="A106" s="1">
+        <v>454</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="68">
+      <c r="A107" s="1">
+        <v>134</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="34">
+      <c r="A108" s="3">
+        <v>230</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="51">
+      <c r="A109" s="1">
+        <v>36</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17">
+      <c r="A110" s="1">
+        <v>150</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="34">
+      <c r="A111" s="1">
+        <v>49</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="51">
+      <c r="A112" s="1">
+        <v>341</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="34">
+      <c r="A113" s="1">
+        <v>238</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="68">
+      <c r="A114" s="1">
+        <v>75</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="119">
+      <c r="A115" s="3">
+        <v>98</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="102">
+      <c r="A116" s="1">
+        <v>277</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="68">
+      <c r="A117" s="1">
+        <v>73</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="34">
+      <c r="A118" s="1">
+        <v>380</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="85">
+      <c r="A119" s="1">
+        <v>127</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="102">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="34">
+      <c r="A121" s="1">
+        <v>210</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="68">
+      <c r="A122" s="1">
+        <v>334</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="85">
+      <c r="A123" s="1">
+        <v>285</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="34">
+      <c r="A124" s="1">
+        <v>251</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="92" customHeight="1"/>
+    <row r="127" spans="1:9" ht="126" customHeight="1"/>
+    <row r="128" spans="1:9" ht="51">
+      <c r="A128" s="1">
+        <v>149</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="170">
+      <c r="A129" s="3">
+        <v>42</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="34">
+      <c r="A130" s="1">
+        <v>23</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="119">
+      <c r="A131" s="1">
+        <v>124</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4300,6 +6794,59 @@
     <hyperlink ref="I73" r:id="rId57" xr:uid="{B5B031F8-BDFC-FB4D-9668-7B91E783BB9A}"/>
     <hyperlink ref="I74" r:id="rId58" xr:uid="{E390BB61-119F-074F-A4CF-39EB53A60739}"/>
     <hyperlink ref="I75" r:id="rId59" xr:uid="{7DAABFD6-9F43-304A-AE71-4B5A2B8D0A61}"/>
+    <hyperlink ref="I76" r:id="rId60" xr:uid="{42D70199-901A-704F-9F04-E82F8B4318A4}"/>
+    <hyperlink ref="I77" r:id="rId61" xr:uid="{83FFDE3A-D0BB-914A-B0D4-5A63ECE4F57D}"/>
+    <hyperlink ref="I78" r:id="rId62" xr:uid="{80B09E42-894C-B741-AFE6-0B5FC33E161E}"/>
+    <hyperlink ref="I79" r:id="rId63" xr:uid="{CB39A174-4973-5A4D-89C1-FF9083D4CDAA}"/>
+    <hyperlink ref="I80" r:id="rId64" xr:uid="{8F6F482B-2410-DC43-B1A4-755ED6F94166}"/>
+    <hyperlink ref="I81" r:id="rId65" xr:uid="{D8829200-CF7F-F44B-9685-290000EE0409}"/>
+    <hyperlink ref="I82" r:id="rId66" xr:uid="{FB536887-F9CF-4D4B-B785-DFD92CFCE8D1}"/>
+    <hyperlink ref="I83" r:id="rId67" xr:uid="{BBE16572-A311-A94D-82C7-FFCC65DA1868}"/>
+    <hyperlink ref="I84" r:id="rId68" xr:uid="{681F3BDA-A63D-3A4E-B12E-042EDD3C22D6}"/>
+    <hyperlink ref="I85" r:id="rId69" xr:uid="{6CE3BF1F-0CFA-644E-87FF-5819FE1235BB}"/>
+    <hyperlink ref="I86" r:id="rId70" xr:uid="{F08CACD5-5187-9E4F-9716-C4BEAEBD7881}"/>
+    <hyperlink ref="I87" r:id="rId71" xr:uid="{15E0D509-139D-FE41-8920-8934FF4380E0}"/>
+    <hyperlink ref="I88" r:id="rId72" xr:uid="{FB6FF3A3-EB10-7943-B588-3A6E3E35D02D}"/>
+    <hyperlink ref="I89" r:id="rId73" xr:uid="{6AD4965E-E4B8-6A4B-9AEE-2B42984A4228}"/>
+    <hyperlink ref="I90" r:id="rId74" xr:uid="{E5E972AC-2264-3040-8AA8-5838D70ACF47}"/>
+    <hyperlink ref="I91" r:id="rId75" xr:uid="{E3C7BFF1-474D-8347-933E-9D7320008801}"/>
+    <hyperlink ref="I92" r:id="rId76" xr:uid="{D0D1C1CA-4E4E-1543-ADC5-23BCB98B47C6}"/>
+    <hyperlink ref="I93" r:id="rId77" xr:uid="{D4596676-748B-6942-9E31-A844A1FF2A7B}"/>
+    <hyperlink ref="I94" r:id="rId78" xr:uid="{589B01A7-78B0-DE49-B683-B5D857113719}"/>
+    <hyperlink ref="I95" r:id="rId79" xr:uid="{3C843F11-D9C0-484F-B165-832EE0E29D02}"/>
+    <hyperlink ref="I96" r:id="rId80" xr:uid="{D471DE09-0454-4E4C-AC29-F7F16017CEEC}"/>
+    <hyperlink ref="I97" r:id="rId81" xr:uid="{3A163934-CD1B-9243-96CB-E0A6B6FDA7A9}"/>
+    <hyperlink ref="I98" r:id="rId82" xr:uid="{F6E7EC0D-1394-1344-8717-31C6D76ADA74}"/>
+    <hyperlink ref="I99" r:id="rId83" xr:uid="{B458E3D5-31DF-DA47-9164-E9AE642EDCAE}"/>
+    <hyperlink ref="I100" r:id="rId84" xr:uid="{74BD5B08-B3EE-0F4A-95B0-EAB873EBD414}"/>
+    <hyperlink ref="I101" r:id="rId85" xr:uid="{F29B15AF-4B41-C544-9A53-8E794F629CA6}"/>
+    <hyperlink ref="I102" r:id="rId86" xr:uid="{9921D283-58BA-164B-93E8-4C06F186A1C9}"/>
+    <hyperlink ref="I103" r:id="rId87" xr:uid="{C6F75269-8F08-EF4D-BFD5-2951EC147E6F}"/>
+    <hyperlink ref="I104" r:id="rId88" xr:uid="{749BA72F-54CD-064A-AF67-9044AA531A9B}"/>
+    <hyperlink ref="I105" r:id="rId89" xr:uid="{1664F26A-F8AB-7A40-AB58-E63AA7344C42}"/>
+    <hyperlink ref="I106" r:id="rId90" xr:uid="{E9CC483E-E1CB-464D-9D99-A95D272C832E}"/>
+    <hyperlink ref="I107" r:id="rId91" xr:uid="{897ECBB0-2503-9A4F-991E-3CB275C6C9F3}"/>
+    <hyperlink ref="I108" r:id="rId92" xr:uid="{8352D7FB-0856-2F46-9819-199144A17072}"/>
+    <hyperlink ref="I109" r:id="rId93" xr:uid="{95D939CF-FD9B-0B4C-97EB-CA4D33B8F2E5}"/>
+    <hyperlink ref="I110" r:id="rId94" xr:uid="{2BF0031D-3F19-3549-B12E-D48C5027B9D9}"/>
+    <hyperlink ref="I111" r:id="rId95" xr:uid="{E1FF2E62-3AF1-F549-8F2C-287D94F8AF40}"/>
+    <hyperlink ref="I112" r:id="rId96" xr:uid="{4142CD18-EA92-0846-867F-68676C667560}"/>
+    <hyperlink ref="I113" r:id="rId97" xr:uid="{E456ADA8-118F-0C4F-B3D8-891EC7739ABA}"/>
+    <hyperlink ref="I114" r:id="rId98" xr:uid="{2F597291-C9F8-364C-AB71-851633EDE7BF}"/>
+    <hyperlink ref="I115" r:id="rId99" xr:uid="{DD27DA91-F0AE-3D49-88D1-08599D4EA84B}"/>
+    <hyperlink ref="I116" r:id="rId100" xr:uid="{E92FB1D0-236D-AA47-BAD2-44CFE73FE70B}"/>
+    <hyperlink ref="I117" r:id="rId101" xr:uid="{A8E7256E-8D74-1742-B352-EE59A9952655}"/>
+    <hyperlink ref="I118" r:id="rId102" xr:uid="{7DA2AC5E-1F72-644C-A3CB-87145B4575DE}"/>
+    <hyperlink ref="I119" r:id="rId103" xr:uid="{E15A75D9-CBA4-C94A-A892-5CAE2CF35A8C}"/>
+    <hyperlink ref="I120" r:id="rId104" xr:uid="{F7C52E37-3FF2-8747-83CC-BA1306AF1304}"/>
+    <hyperlink ref="I121" r:id="rId105" xr:uid="{1DD00ABA-3BB9-204D-8077-BDFFA7DBE71E}"/>
+    <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
+    <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
+    <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
+    <hyperlink ref="I128" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I129" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I130" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I131" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DB438-9E12-0747-BDB5-D821A6CFA600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988BEB8-1CC6-AF44-8EA4-CB92F6EE344A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1220" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="2720" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="576">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2904,6 +2904,20 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>二叉树展开为链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，原地将它展开为链表。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>将右子节点暂存，左子节点拿到右子节点处，递归展开当前的右子节点（原先的左子节点），然后将递归展开后的temp节点（原先的右子节点）接到当前右边的尾巴处，这个尾巴每次都需要从根节点递归向下查找.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3391,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I131"/>
+  <dimension ref="A2:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3951,7 +3965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="119">
+    <row r="22" spans="1:9" ht="102">
       <c r="A22" s="6">
         <v>198</v>
       </c>
@@ -4651,7 +4665,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="51">
+    <row r="48" spans="1:9" ht="34">
       <c r="A48" s="6">
         <v>191</v>
       </c>
@@ -6629,106 +6643,132 @@
         <v>553</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="92" customHeight="1"/>
-    <row r="127" spans="1:9" ht="126" customHeight="1"/>
-    <row r="128" spans="1:9" ht="51">
-      <c r="A128" s="1">
+    <row r="125" spans="1:9" ht="85">
+      <c r="A125" s="1">
+        <v>114</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="92" customHeight="1"/>
+    <row r="128" spans="1:9" ht="126" customHeight="1"/>
+    <row r="129" spans="1:9" ht="51">
+      <c r="A129" s="1">
         <v>149</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="170">
-      <c r="A129" s="3">
-        <v>42</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>84</v>
+        <v>555</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34">
-      <c r="A130" s="1">
-        <v>23</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="170">
+      <c r="A130" s="3">
+        <v>42</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>9</v>
+      <c r="E130" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="119">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="34">
       <c r="A131" s="1">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>88</v>
+        <v>565</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="119">
+      <c r="A132" s="1">
+        <v>124</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6843,10 +6883,11 @@
     <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
     <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I128" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I129" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I130" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I131" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I129" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I130" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I131" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I132" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988BEB8-1CC6-AF44-8EA4-CB92F6EE344A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C48D39A-EA59-1B47-86CE-8CD36FF802E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="581">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2917,6 +2917,24 @@
   </si>
   <si>
     <t>将右子节点暂存，左子节点拿到右子节点处，递归展开当前的右子节点（原先的左子节点），然后将递归展开后的temp节点（原先的右子节点）接到当前右边的尾巴处，这个尾巴每次都需要从根节点递归向下查找.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜的小猪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始时有 n 个灯泡关闭。 第 1 轮，你打开所有的灯泡。 第 2 轮，每两个灯泡你关闭一次。 第 3 轮，每三个灯泡切换一次开关（如果关闭则开启，如果开启则关闭）。第 i 轮，每 i 个灯泡切换一次开关。 对于第 n 轮，你只切换最后一个灯泡的开关。 找出 n 轮后有多少个亮着的灯泡。</t>
+  </si>
+  <si>
+    <t>return sqrt(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/bulb-switcher/</t>
+  </si>
+  <si>
+    <t>灯泡开关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3405,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I132"/>
+  <dimension ref="A2:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6669,107 +6687,150 @@
         <v>574</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="92" customHeight="1"/>
-    <row r="128" spans="1:9" ht="126" customHeight="1"/>
-    <row r="129" spans="1:9" ht="51">
-      <c r="A129" s="1">
+    <row r="126" spans="1:9">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" ht="85">
+      <c r="A127" s="1">
+        <v>319</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="92" customHeight="1"/>
+    <row r="130" spans="1:9" ht="126" customHeight="1"/>
+    <row r="131" spans="1:9" ht="51">
+      <c r="A131" s="1">
         <v>149</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="170">
-      <c r="A130" s="3">
-        <v>42</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="34">
-      <c r="A131" s="1">
-        <v>23</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>556</v>
       </c>
+      <c r="E131" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="F131" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="119">
-      <c r="A132" s="1">
-        <v>124</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>88</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="170">
+      <c r="A132" s="3">
+        <v>42</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="34">
+      <c r="A133" s="1">
+        <v>23</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="119">
+      <c r="A134" s="1">
+        <v>124</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17">
+      <c r="A135" s="1">
+        <v>458</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -6883,11 +6944,12 @@
     <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
     <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I129" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I130" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I131" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I132" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I131" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I132" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I133" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I134" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
+    <hyperlink ref="I127" r:id="rId114" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C48D39A-EA59-1B47-86CE-8CD36FF802E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D206F3-8FA4-4349-97BB-390E0FAE6AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="617">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2935,6 +2935,153 @@
   </si>
   <si>
     <t>灯泡开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以图判树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/graph-valid-tree/</t>
+  </si>
+  <si>
+    <t>1. 用BFS做出，时间还不够快
+2. 并查集，没看懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定从 0 到 n-1 标号的 n 个结点，和一个无向边列表（每条边以结点对来表示），请编写一个函数用来判断这些边是否能够形成一个合法有效的树结构。</t>
+  </si>
+  <si>
+    <t>删除无效的括号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS、BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除最小数量的无效括号，使得输入的字符串有效，返回所有可能的结果。</t>
+  </si>
+  <si>
+    <t>步骤：
+1. 先算出有多少个错位的左括号和右括号（一次扫描即可算出）
+2. 带条件的回溯，算出所有可能的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-invalid-parentheses/</t>
+  </si>
+  <si>
+    <t>跳跃游戏II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次最多跳x步，找到跳到终点的最少步数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实不是动态规划，直接贪心就可以。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K个一组反转链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你一个链表，每 k 个节点一组进行翻转，请你返回翻转后的链表。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>设置一个dummyHead, k个k个的读，截取出来，单独翻转，题目不难，但是需要十分小心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图中的最大矩形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定 n 个非负整数，用来表示柱状图中各个柱子的高度。每个柱子彼此相邻，且宽度为 1 。
+求在该柱状图中，能够勾勒出来的矩形的最大面积。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>维护一个单调递增的栈，当当前元素比栈顶元素小时计算当前面积。栈中存下标。
+跟接雨水那道题非常相似</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流的中位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个支持以下两种操作的数据结构：
+void addNum(int num) - 从数据流中添加一个整数到数据结构中。
+double findMedian() - 返回目前所有元素的中位数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法：两个堆，一个是用来存中位数左边一半元素的最大堆，一个是用来存中位数右边一半元素的最小堆。中位数即为最大堆顶和最小对顶里取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>寻找两个有序数组的中位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二分查找
+我们比较两个数组的第 k/2 个数字，如果 k 是奇数，向下取整。如果哪个小，就表明该数组的前 k/2 个数字都不是第 k 小数字，所以可以排除。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)时间插入、删除和获取随机元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有一个很巧妙的办法是，用一个
+unordered_map&lt;int, unordered_set&lt;int&gt;&gt; 存每个元素对应的Index集合；再用一个vector存所有实际的数，以便随机查找用；
+关键是在删除的时候，这里用了尾部元素去替换要删的元素，因为存了index，可以O(1)时间找到，然后再删除冗余的尾部元素，依然O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/insert-delete-getrandom-o1-duplicates-allowed/</t>
+  </si>
+  <si>
+    <t>二叉树的序列化与反序列化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设计一个算法来实现二叉树的序列化与反序列化。这里不限定你的序列 / 反序列化算法执行逻辑，你只需要保证一个二叉树可以被序列化为一个字符串并且将这个字符串反序列化为原始的树结构。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>1. 序列化：直接DFS先序递归，注意要把NULL也输出到字符串
+2. 反序列化：c++没有split有点坑，需要手动处理字符串转化成vector&lt;string&gt;，然后再用DFS一样的办法递归，递归期间持续把index往后挪，保证每个节点只被读取一次。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3423,10 +3570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I135"/>
+  <dimension ref="A2:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:XFD126"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6687,8 +6834,31 @@
         <v>574</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="I126" s="2"/>
+    <row r="126" spans="1:9" ht="51">
+      <c r="A126" s="1">
+        <v>261</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="85">
       <c r="A127" s="1">
@@ -6831,6 +7001,208 @@
       </c>
       <c r="D135" s="1" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="68">
+      <c r="A136" s="1">
+        <v>301</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17">
+      <c r="A137" s="1">
+        <v>45</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="34">
+      <c r="A138" s="1">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="68">
+      <c r="A139" s="1">
+        <v>84</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="68">
+      <c r="A140" s="1">
+        <v>295</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="85">
+      <c r="A141" s="3">
+        <v>4</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="119">
+      <c r="A142" s="1">
+        <v>381</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="102">
+      <c r="A143" s="1">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6950,6 +7322,13 @@
     <hyperlink ref="I134" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
     <hyperlink ref="I127" r:id="rId114" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
+    <hyperlink ref="I126" r:id="rId115" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
+    <hyperlink ref="I136" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I138" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I139" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I140" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I142" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I143" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D206F3-8FA4-4349-97BB-390E0FAE6AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364129B-2C6A-1B4A-9051-0A6E5E2A3B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="29580" windowHeight="19780" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="640">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2810,9 +2810,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>给定一个二维平面，平面上有 n 个点，求最多有多少个点在同一条直线上。</t>
-  </si>
-  <si>
     <t>hard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2829,10 +2826,6 @@
   </si>
   <si>
     <t>栈、数组、双指针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定 n 个非负整数表示每个宽度为 1 的柱子的高度图，计算按此排列的柱子，下雨之后能接多少雨水。两边不计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2894,9 +2887,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本题中，路径被定义为一条从树中任意节点出发，达到任意节点的序列。该路径至少包含一个节点，且不一定经过根节点。</t>
-  </si>
-  <si>
     <t>可以直接上递归，递归计算左右两子树能带来的最大收益。
 1. 包含当前节点的路径的最大和 = max(根值+左侧最大收益+右侧最大收益， 根值+左侧最大收益，根植+右侧最大收益).  
 2. 当前节点能为父节点带去的最大收益 = max(根值， 根值+左侧最大收益，根植+右侧最大收益)</t>
@@ -3029,6 +3019,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>来源：力扣（LeetCode）</t>
+  </si>
+  <si>
+    <t>著作权归领扣网络所有。商业转载请联系官方授权，非商业转载请注明出处。</t>
+  </si>
+  <si>
     <t>设计一个支持以下两种操作的数据结构：
 void addNum(int num) - 从数据流中添加一个整数到数据结构中。
 double findMedian() - 返回目前所有元素的中位数。</t>
@@ -3082,6 +3078,102 @@
   <si>
     <t>1. 序列化：直接DFS先序递归，注意要把NULL也输出到字符串
 2. 反序列化：c++没有split有点坑，需要手动处理字符串转化成vector&lt;string&gt;，然后再用DFS一样的办法递归，递归期间持续把index往后挪，保证每个节点只被读取一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和至少为K的最短子数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 存储一个前缀和数组。
+2. 使用一个双端队列（其实就是一个滑动窗口，可以在两端添加或删除数）.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 A 的最短的非空连续子数组的长度，该子数组的和至少为 K 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-subarray-with-sum-at-least-k/</t>
+  </si>
+  <si>
+    <t>四数之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表、双指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含 n 个整数的数组 nums 和一个目标值 target，判断 nums 中是否存在四个元素 a，b，c 和 d ，使得 a + b + c + d 的值与 target 相等？找出所有满足条件且不重复的四元组。</t>
+  </si>
+  <si>
+    <t>链接：https://leetcode-cn.com/problems/4sum</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>跟三数之和类似，外层两层嵌套循环，固定住前两个数，然后双指针从后边找后两个数，并且要保证解不能重复即可。
+要注意的是如何避免重复，这里很容易出错。每当某个数用过了，要记得跳过当前数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次是要找到入环的点，但是不能用额外内存（即不能用哈希表存节点的指针）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做法是在找到环时（快慢指针相遇），固定相遇的点，让一个节点从头节点开始走，两个一人走一步，相遇的点即为入环点.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小覆盖字串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、双指针、字符串、滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大间距</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和为K的子数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组和一个整数 k，你需要找到该数组中和为 k 的连续的子数组的个数。</t>
+  </si>
+  <si>
+    <t>O(n)时间：
+使用哈希表存储前缀和，当sum-k存在于哈希表中时，说明存在一个符合要求的子数组。
+解释：
+当前数字为num[i], 累和为Si = num[0] + num[1] +…+num[i], 若存在一个num[j]使得sum-k = Sj, 则num[j] + num[j+1] +…+num[i]为符合要求的子数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>格雷编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷编码是一个二进制数字系统，在该系统中，两个连续的数值仅有一个位数的差异。
+给定一个代表编码总位数的非负整数 n，打印其格雷编码序列。格雷编码序列必须以 0 开头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/gray-code/</t>
+  </si>
+  <si>
+    <t>根据规律为：每次将现有的所有数末尾加一个0， 再从后往前遍历现有的数，每个数加1，存到现有数组中，以此类推</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3570,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I143"/>
+  <dimension ref="A2:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6813,7 +6905,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>88</v>
@@ -6822,16 +6914,16 @@
         <v>229</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="51">
@@ -6839,7 +6931,7 @@
         <v>261</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>322</v>
@@ -6848,16 +6940,16 @@
         <v>229</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="85">
@@ -6865,7 +6957,7 @@
         <v>319</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>40</v>
@@ -6874,335 +6966,484 @@
         <v>229</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="92" customHeight="1"/>
-    <row r="130" spans="1:9" ht="126" customHeight="1"/>
-    <row r="131" spans="1:9" ht="51">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="92" customHeight="1">
+      <c r="A128" s="1">
+        <v>18</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="92" customHeight="1">
+      <c r="A129" s="1">
+        <v>142</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" ht="136">
+      <c r="A130" s="1">
+        <v>560</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="68">
       <c r="A131" s="1">
+        <v>89</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="126" customHeight="1"/>
+    <row r="134" spans="1:9" ht="51">
+      <c r="A134" s="1">
         <v>149</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="G134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="170">
+      <c r="A135" s="3">
+        <v>42</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="34">
+      <c r="A136" s="1">
+        <v>23</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="170">
-      <c r="A132" s="3">
-        <v>42</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34">
-      <c r="A133" s="1">
-        <v>23</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="I136" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F133" s="1" t="s">
+    </row>
+    <row r="137" spans="1:9" ht="119">
+      <c r="A137" s="1">
+        <v>124</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I133" s="2" t="s">
+      <c r="C137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="119">
-      <c r="A134" s="1">
-        <v>124</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17">
-      <c r="A135" s="1">
-        <v>458</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="68">
-      <c r="A136" s="1">
-        <v>301</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17">
-      <c r="A137" s="1">
-        <v>45</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="34">
+      <c r="I137" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17">
       <c r="A138" s="1">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="68">
       <c r="A139" s="1">
+        <v>301</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17">
+      <c r="A140" s="1">
+        <v>45</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="34">
+      <c r="A141" s="1">
+        <v>25</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="68">
+      <c r="A142" s="1">
         <v>84</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="68">
-      <c r="A140" s="1">
-        <v>295</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="85">
-      <c r="A141" s="3">
-        <v>4</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="119">
-      <c r="A142" s="1">
-        <v>381</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="68">
+      <c r="A143" s="1">
+        <v>295</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="85">
+      <c r="A144" s="3">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="119">
+      <c r="A145" s="1">
+        <v>381</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="102">
+      <c r="A146" s="1">
+        <v>287</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="102">
-      <c r="A143" s="1">
-        <v>287</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F146" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F143" s="1" t="s">
+    </row>
+    <row r="147" spans="1:9" ht="68">
+      <c r="A147" s="1">
+        <v>862</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>615</v>
+      <c r="C147" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="34">
+      <c r="A148" s="1">
+        <v>76</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17">
+      <c r="A149" s="1">
+        <v>164</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7316,19 +7557,23 @@
     <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
     <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I131" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I132" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I133" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I134" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I134" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I135" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I136" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I137" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
     <hyperlink ref="I127" r:id="rId114" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
     <hyperlink ref="I126" r:id="rId115" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I136" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
-    <hyperlink ref="I138" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
-    <hyperlink ref="I139" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I140" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I142" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I143" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I139" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I141" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I142" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I143" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I145" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I146" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I147" r:id="rId122" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I128" r:id="rId123" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
+    <hyperlink ref="I130" r:id="rId124" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
+    <hyperlink ref="I131" r:id="rId125" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364129B-2C6A-1B4A-9051-0A6E5E2A3B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAAC48-78B9-424C-8077-48CC508143D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="649">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3175,6 +3175,41 @@
   <si>
     <t>根据规律为：每次将现有的所有数末尾加一个0， 再从后往前遍历现有的数，每个数加1，存到现有数组中，以此类推</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小高度树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索、图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个具有树特征的无向图，我们可选择任何一个节点作为根。图因此可以成为树，在所有可能的树中，具有最小高度的树被称为最小高度树。给出这样的一个图，写出一个函数找到所有的最小高度树并返回他们的根节点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 类似剥洋葱的方法，先从度数为1的节点开始，一层一层向内找，直到最后剩下的一个或两个点，就是要找的根节点。(跟拓扑排序很类似，只不过这里是无向无环图，而拓扑排序必须是有向无环图)
+2. 还有一种方法是可以用两次dfs的交点，即为树的重心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-height-trees/</t>
+  </si>
+  <si>
+    <t>无向图中连通分量的个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个题是并查集的典型应用，直接套模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-connected-components-in-an-undirected-graph/</t>
   </si>
 </sst>
 </file>
@@ -3662,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I149"/>
+  <dimension ref="A2:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7080,369 +7115,428 @@
         <v>638</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="126" customHeight="1"/>
-    <row r="134" spans="1:9" ht="51">
-      <c r="A134" s="1">
+    <row r="132" spans="1:9" ht="119">
+      <c r="A132" s="1">
+        <v>310</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="34">
+      <c r="A133" s="1">
+        <v>323</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="F134" s="3"/>
+      <c r="G134" s="5"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="F135" s="3"/>
+      <c r="G135" s="5"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="137" spans="1:9" ht="126" customHeight="1"/>
+    <row r="138" spans="1:9" ht="51">
+      <c r="A138" s="1">
         <v>149</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="170">
-      <c r="A135" s="3">
-        <v>42</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="34">
-      <c r="A136" s="1">
-        <v>23</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="119">
-      <c r="A137" s="1">
-        <v>124</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17">
-      <c r="A138" s="1">
-        <v>458</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="68">
-      <c r="A139" s="1">
-        <v>301</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>583</v>
+      <c r="F138" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="170">
+      <c r="A139" s="3">
+        <v>42</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>10</v>
+        <v>560</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="34">
       <c r="A140" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>141</v>
+        <v>563</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="34">
+        <v>9</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="119">
       <c r="A141" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="68">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17">
       <c r="A142" s="1">
-        <v>84</v>
+        <v>458</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>595</v>
+        <v>40</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="143" spans="1:9" ht="68">
       <c r="A143" s="1">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>84</v>
+        <v>584</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="85">
-      <c r="A144" s="3">
-        <v>4</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D144" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17">
+      <c r="A144" s="1">
+        <v>45</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="119">
+        <v>588</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="34">
       <c r="A145" s="1">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G145" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="68">
+      <c r="A146" s="1">
         <v>84</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="102">
-      <c r="A146" s="1">
-        <v>287</v>
-      </c>
       <c r="B146" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>234</v>
+        <v>595</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>9</v>
+        <v>596</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="68">
       <c r="A147" s="1">
-        <v>862</v>
+        <v>295</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I147" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="85">
+      <c r="A148" s="3">
+        <v>4</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="119">
+      <c r="A149" s="1">
+        <v>381</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="102">
+      <c r="A150" s="1">
+        <v>287</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="68">
+      <c r="A151" s="1">
+        <v>862</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="34">
-      <c r="A148" s="1">
+    <row r="152" spans="1:9" ht="34">
+      <c r="A152" s="1">
         <v>76</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17">
-      <c r="A149" s="1">
+    <row r="153" spans="1:9" ht="17">
+      <c r="A153" s="1">
         <v>164</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>631</v>
       </c>
     </row>
@@ -7557,23 +7651,25 @@
     <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
     <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I134" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I135" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I136" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I137" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I138" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I139" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I140" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I141" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
     <hyperlink ref="I127" r:id="rId114" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
     <hyperlink ref="I126" r:id="rId115" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I139" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
-    <hyperlink ref="I141" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
-    <hyperlink ref="I142" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I143" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I145" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I146" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
-    <hyperlink ref="I147" r:id="rId122" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I143" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I145" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I146" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I147" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I149" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I150" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I151" r:id="rId122" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
     <hyperlink ref="I128" r:id="rId123" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
     <hyperlink ref="I130" r:id="rId124" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
     <hyperlink ref="I131" r:id="rId125" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
+    <hyperlink ref="I132" r:id="rId126" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
+    <hyperlink ref="I133" r:id="rId127" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAAC48-78B9-424C-8077-48CC508143D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B05589-2B06-5249-B7CC-A5674D44F9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="654">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3210,6 +3210,28 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/number-of-connected-components-in-an-undirected-graph/</t>
+  </si>
+  <si>
+    <t>火星词典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有一种使用字母的全新语言，这门语言的字母顺序与英语顺序不同。
+假设，您并不知道其中字母之间的先后顺序。但是，会收到词典中获得一个 不为空的 单词列表。因为是从词典中获得的，所以该单词列表内的单词已经 按这门新语言的字母顺序进行了排序。
+您需要根据这个输入的列表，还原出此语言中已知的字母顺序。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 首先根据所给词，构建出图，将单词纵向对比，根据对应位置的先后出现的顺序构造出有向无环图.
+2. 进行拓扑排序，如果拓扑排序后的结果的长度小于词典中单词的数量，则说明图中有环，返回个空，否则返回排序结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/alien-dictionary/</t>
+  </si>
+  <si>
+    <t>最长连续序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3697,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I153"/>
+  <dimension ref="A2:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7538,6 +7560,46 @@
       </c>
       <c r="B153" s="1" t="s">
         <v>631</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="136">
+      <c r="A154" s="1">
+        <v>269</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17">
+      <c r="A155" s="1">
+        <v>128</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7670,6 +7732,7 @@
     <hyperlink ref="I131" r:id="rId125" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
     <hyperlink ref="I132" r:id="rId126" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
     <hyperlink ref="I133" r:id="rId127" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
+    <hyperlink ref="I154" r:id="rId128" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B05589-2B06-5249-B7CC-A5674D44F9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9F32A-7114-8147-B2B9-9D4926E691F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
@@ -3722,7 +3722,7 @@
   <dimension ref="A2:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9F32A-7114-8147-B2B9-9D4926E691F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DEE22-FAB6-5246-A228-05900D746F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="23880" yWindow="-4320" windowWidth="33600" windowHeight="21000" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="917">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>报数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报数序列是一个整数序列，按照其中的整数的顺序进行报数，得到下一个数。
 1.     1
 2.     11
@@ -610,10 +606,6 @@
     <t>https://leetcode-cn.com/problems/majority-element/</t>
   </si>
   <si>
-    <t>求众数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 摩尔投票法：直接设置一个buffer和一个count，如果下个数跟前一个一样则count++，否则--，count为0则更换buffer为当前数。O(n), O(1)
 2. 预排序，取中位数。O(nlogn), O(n)
 3. 哈希表，O(n), O(n)
@@ -672,16 +664,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有序数组转化为二叉搜索树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>将一个按照升序排列的有序数组，转换为一棵高度平衡二叉搜索树。</t>
-  </si>
-  <si>
-    <t>1. 直接递归
-2. 别的没看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
@@ -1135,10 +1118,6 @@
     <t>https://leetcode-cn.com/problems/lru-cache/</t>
   </si>
   <si>
-    <t>哈希链表(双链表），利用哈希表的查找时间O(1)和链表插入删除时间为O(1)的特点。在删除节点时一定要注意把哈希表中的节点也删掉。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无重复字符的最长子串</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1251,10 +1230,6 @@
   </si>
   <si>
     <t>螺旋矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按层向内循环即可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1903,12 +1878,6 @@
   </si>
   <si>
     <t>两个哈希表、一个是反向的， 存每个节点被哪些节点所指（存下标）。另一个存复制后的每个节点应该指向第几个节点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 分治法，多路归并，实现起来有些慢，相当于还是丢失了信息。
-2. 二分查找？
-3. 从右上或左下开始找，不断往固定的方向走，直到找到为止，复杂度O(m+n)，非常巧妙'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3233,12 +3202,1054 @@
     <t>最长连续序列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>回文数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个整数是否是回文数。回文数是指正序（从左向右）和倒序（从右向左）读都是一样的整数。</t>
+  </si>
+  <si>
+    <t>注意正负情况，负数不可能是回文数，剩下的一位一位比就行了，直接to_string()也行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>移除元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个数组 nums 和一个值 val，你需要原地移除所有数值等于 val 的元素，返回移除后数组的新长度。（顺序可以改变）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，一个慢的记录不同元素，一个快的在前面排除重复元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-element/</t>
+  </si>
+  <si>
+    <t>外观数列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个二进制字符串，返回他们的和（用二进制表示）。</t>
+  </si>
+  <si>
+    <t>套求和模板，关键在于处理进位的情况，只要单独用一位一直记录进位，然后每一步把a[i]+b[i]+进位算出来即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-binary/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-strstr</t>
+  </si>
+  <si>
+    <t>删除排序链表中的重复元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个排序链表，删除所有重复的元素，使得每个元素只出现一次。</t>
+  </si>
+  <si>
+    <t>链表的基本操作，甚至比删除数组中的重复元素要简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>相同的树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个二叉树，编写一个函数来检验它们是否相同。</t>
+  </si>
+  <si>
+    <t>递归判断即可，当前是否相同，再递归判断左右子树是否相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的层次遍历II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，返回其节点值自底向上的层次遍历。 （即按从叶子节点所在层到根节点所在的层，逐层从左向右遍历）</t>
+  </si>
+  <si>
+    <t>简单的BFS即可，或者每层存一个数组，一层一层遍历。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/</t>
+  </si>
+  <si>
+    <t>平衡二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，判断它是否是高度平衡的二叉树。</t>
+  </si>
+  <si>
+    <t>递归、看左右子树即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、DFS、BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，找出其最小深度。
+最小深度是从根节点到最近叶子节点的最短路径上的节点数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是递归、看左右子树，一直往下找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>路径总和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树和一个目标和，判断该树中是否存在根节点到叶子节点的路径，这条路径上所有节点值相加等于目标和。</t>
+  </si>
+  <si>
+    <t>递归，分两种情况考虑：算当前节点和不算当前节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除链表元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表中等于给定值 val 的所有节点。</t>
+  </si>
+  <si>
+    <t>比数组中删除给定数的简单，毕竟链表的增删只需要O(1)，而且操作简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-linked-list-elements/</t>
+  </si>
+  <si>
+    <t>给定一个整数数组，判断是否存在重复元素。
+如果任何值在数组中出现至少两次，函数返回 true。如果数组中每个元素都不相同，则返回 false。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表存就行，送分题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用队列实现栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用队列实现栈的操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. push()时正常push
+2. 但是取top()和pop()时，要用一个临时队列存一下，把当前队列的值都掏出来，直到取到队尾的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-stack-using-queues/</t>
+  </si>
+  <si>
+    <t>翻转二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转一颗二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换左右子节点指针，递归翻转左右子树即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>2的幂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数，编写一个函数来判断它是否是 2 的幂次方。</t>
+  </si>
+  <si>
+    <t>标准的用位掩码做检测的题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用栈实现队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟225题正好相反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作跟225题正好相反，也是push时正常push，但是Pop和获取top元素时，要用一个临时栈存一下，把原栈里的元素都掏出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/power-of-two</t>
+  </si>
+  <si>
+    <t>二叉检索树的最近公共祖先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉搜索树, 找到该树中两个指定节点的最近公共祖先。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，比较当前两个值跟当前根节点的值，在同一侧的话，则从根节点往左或右侧找，在两侧的话则当前点即为要找的最近公共祖先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree</t>
+  </si>
+  <si>
+    <t>最短单词距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个单词列表和两个单词 word1 和 word2，返回列表中这两个单词之间的最短距离。</t>
+  </si>
+  <si>
+    <t>一次遍历即可，每次发现一个word1或者word2，就更新一下位置，算一下距离，最后返回最近的距离即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-word-distance/</t>
+  </si>
+  <si>
+    <t>中心对称数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心对称数是指一个数字在旋转了 180 度之后看起来依旧相同的数字（或者上下颠倒地看）。</t>
+  </si>
+  <si>
+    <t>这个题有个巧的地方是可以用哈希表存一个原数到对称后的数的表，例如6-&gt;9, 9-&gt;6 等等，先将数翻转，看跟原数是否相等即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/strobogrammatic-number/</t>
+  </si>
+  <si>
+    <t>会议室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个会议时间安排的数组，每个会议时间都会包括开始和结束的时间，判断一个人是否能参加全部会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义排序函数，对所有区间进行排序，再看有没有重叠部分即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/meeting-rooms/</t>
+  </si>
+  <si>
+    <t>各位相加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非负整数 num，反复将各个位上的数字相加，直到结果为一位数。 (能否O(1)时间解决？)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察后发现，如果这个数末尾是9，则答案是9，否则是num % 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-digits/</t>
+  </si>
+  <si>
+    <t>丑数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断给定的数是否是丑数
+丑数是只包含质因数2,3,5的正整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用去分解质因数，直接让当前数不断地去除2，3，5，看剩的是不是1 即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ugly-number/</t>
+  </si>
+  <si>
+    <t>Nim游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑筋急转弯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和你的朋友，两个人一起玩 Nim 游戏：桌子上有一堆石头，每次你们轮流拿掉 1 - 3 块石头。 拿掉最后一块石头的人就是获胜者。你作为先手.  假设你每一步去拿最优解，判断在给定石头数量下能否赢得游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是4的整数倍，赢不了。否则能赢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/nim-game/</t>
+  </si>
+  <si>
+    <t>数据流中的移动平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数据流和一个窗口大小，根据该滑动窗口的大小，计算其所有整数的移动平均值。</t>
+  </si>
+  <si>
+    <t>设计、队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用队列存数据，实时更新里边的平均值即可，存里边的数的和，这样时间复杂度只要O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/moving-average-from-data-stream/</t>
+  </si>
+  <si>
+    <t>判断子序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、动态规划、二分查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定字符串 s 和 t ，判断 s 是否为 t 的子序列。</t>
+  </si>
+  <si>
+    <t>直接贪心找，别搞花里胡哨的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/is-subsequence/</t>
+  </si>
+  <si>
+    <t>字符串相加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个字符串形式的非负整数 num1 和num2 ，计算它们的和。</t>
+  </si>
+  <si>
+    <t>跟67题 二进制求和，用同样的模板就行。每次记录住当前的进位位，把num1[i] + num2[i] + jinwei算出即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-strings/</t>
+  </si>
+  <si>
+    <t>路径总和III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出二叉树找出路径和等于给定数值的路径总数。
+路径不需要从根节点开始，也不需要在叶子节点结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs深搜。分两种情况，包括当前节点或不包括</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>找到数组中所有消失的数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个范围在  1 ≤ a[i] ≤ n ( n = 数组大小 ) 的 整型数组，数组中的元素一些出现了两次，另一些只出现一次。
+找到所有在 [1, n] 范围之间没有出现在数组中的数字。
+要求：不使用额外空间且时间复杂度为O(N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地标记法，每当看到一个数，把对应位置的数给转成负数，已经为负的不再转，最后看哪些位置的数依然是正的即可。 关键是利用题中条件，数的范围给了，所以可以在下标上做文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-all-numbers-disappeared-in-an-array/</t>
+  </si>
+  <si>
+    <t>汉明距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个整数之间的汉明距离指的是这两个数字对应二进制位不同的位置的数目。给出两个整数 x 和 y，计算它们之间的汉明距离。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求出两个数异或值，用位掩码找1的数量即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/hamming-distance/</t>
+  </si>
+  <si>
+    <t>反转字符串中的单词III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串，你需要反转字符串中每个单词的字符顺序，同时仍保留空格和单词的初始顺序。</t>
+  </si>
+  <si>
+    <t>没有任何难度，只是字符串处理而已</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/</t>
+  </si>
+  <si>
+    <t>最短无序连续子数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组，你需要寻找一个连续的子数组，如果对这个子数组进行升序排序，那么整个数组都会变为升序排序。</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-unsorted-continuous-subarray/</t>
+  </si>
+  <si>
+    <t>先将数组排序，再去比较即可，从左右两侧逼近，确定左右边界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并二叉树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个二叉树，想象当你将它们中的一个覆盖到另一个上时，两个二叉树的一些节点便会重叠。
+你需要将他们合并为一个新的二叉树。合并的规则是如果两个节点重叠，那么将他们的值相加作为节点合并后的新值，否则不为 NULL 的节点将直接作为新二叉树的节点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟检测两个二叉树是不是相等的那个题一样，直接无脑递归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-two-binary-trees/</t>
+  </si>
+  <si>
+    <t>最长同值路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、递归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，找到最长的路径，这个路径中的每个节点具有相同值。 这条路径可以经过也可以不经过根节点。</t>
+  </si>
+  <si>
+    <t>这道题绝壁不是一道easy的题，跟那道hard的题124题，一样。在递归期间，要算出当前的最大值，同时返回给上一层的只能是包括一半的最大值max（根+左，根+右），而不能是以当前节点为根节点的最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-univalue-path/</t>
+  </si>
+  <si>
+    <t>自除数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自除数 是指可以被它包含的每一位数除尽的数。
+给定上边界和下边界数字，输出一个列表，列表的元素是边界（含边界）内所有的自除数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴搜 ， 无语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/self-dividing-numbers</t>
+  </si>
+  <si>
+    <t>最近的请求次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个 RecentCounter 类来计算最近的请求。
+后边一堆乱七八糟的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">没有任何难度，队列就完事了 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-recent-calls/</t>
+  </si>
+  <si>
+    <t>找到小镇的法官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">图 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个邻接表，找到一个点，它不指向任何其他的点，但所有其它的点都指向他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到那个出度为0，入度为n-1的点即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/progress/</t>
+  </si>
+  <si>
+    <t>不邻接植花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是精确覆盖问题（上色）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个题毕竟只是easy，暴搜就行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flower-planting-with-no-adjacent/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最接近的三数之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包括 n 个整数的数组 nums 和 一个目标值 target。找出 nums 中的三个整数，使得它们的和与 target 最接近。
+返回这三个数的和。存在唯一答案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实跟上边15题一样，先预排序，然后按顺序每次选一个数，再从剩下的数里用双指针去选后两个，当和比target大了就让大的往左移，和比target小了就让小的往右移。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/3sum-closest/</t>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表，两两交换其中相邻的节点，并返回交换后的链表。
+例如： 1-&gt;2-&gt;3-&gt;4， 要返回2-&gt;1-&gt;4-&gt;3
+要求进行实际的节点交换，而不能只交换值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummyHead大法，其实就是考察操作链表的基本功。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>按层向内循环即可。还有一种较好的解法是按顺序遍历每条边，以“上、右、下、左’的顺序，每次遍历完一条边，就把这条边向内缩一次。对逆时针也很好解决。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个正整数 n，生成一个包含 1 到 n^2 所有元素，且元素按顺时针顺序螺旋排列的正方形矩阵。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/spiral-matrix-ii/</t>
+  </si>
+  <si>
+    <t>跟前边的54其实一样，怎么都要n^2的时空复杂度，按边一条一条顺时针生成就行了。其实把54题的代码少做改动即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表，旋转链表，将链表每个节点向右移动 k 个位置，其中 k 是非负数。</t>
+  </si>
+  <si>
+    <t>直接将链表首尾相连，然后从head开始往后走k % length 步，再将环断开即可。依然是链表的基本操作，考察熟练性而已。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/rotate-list/</t>
+  </si>
+  <si>
+    <t>不同路径II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上一题基础上增加了障碍物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实跟上一题几乎没有区别，碰到障碍物不算即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths-ii/</t>
+  </si>
+  <si>
+    <t>最小路径和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个包含非负整数的 m x n 网格，请找出一条从左上角到右下角的路径，使得路径上的数字总和为最小。</t>
+  </si>
+  <si>
+    <t>非常直白的动态规划题，每步从上边和右边找能使当前更小的就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-path-sum/</t>
+  </si>
+  <si>
+    <t>删除排序链表中的重复元素II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个排序链表，删除所有含有重复数字的节点，只保留原始链表中 没有重复出现 的数字。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummyHead大法。先哈希表存下来所有重复出现过的数字，再遍历一遍链表，将有重复的跳过即可。  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>分隔链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个链表和一个特定值 x，对链表进行分隔，使得所有小于 x 的节点都在大于或等于 x 的节点之前。
+要求保留两个分区中每个节点的初始相对位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是快速排序中的partition操作。
+但是这道题一种简单的实现方式是先找到左半部分，再找到右半部分，最后拼接到一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/partition-list/</t>
+  </si>
+  <si>
+    <t>不同的二叉搜索树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、动态规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数 n，求以 1 ... n 为节点组成的二叉搜索树有多少种？</t>
+  </si>
+  <si>
+    <t>long C = 1;
+for(int I = 0; I &lt; n; i++){
+    C = C * 2 * (2 * I + 1) / (I + 2);
+}
+其实本质上是一道数学问题，叫做”卡塔兰数“，感觉没什么价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>将有序链表转换为二叉搜索树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给定一个单链表，其中的元素按升序排序，将其转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高度平衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的二叉搜索树。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这里要求了高度要平衡，因此不能直接返回链表头结点（因为链表本身其实相当于一个有偏的BFS了）
+相当于给定了中序遍历的结果，求原BFS。其实用之前的快慢指针法，每次找到中间的节点作为根节点，再递归遍历左右半部分即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>路径总和II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树和一个目标和，找到所有从根节点到叶子节点路径总和等于给定目标和的路径。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个题中的”路径“定义为从根到叶子节点的路径，而不是之前的那种从任意节点开始从任意节点结束的路径。
+直接向下做回溯算法即可，随时剪枝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum-ii/</t>
+  </si>
+  <si>
+    <t>求根到叶子节点数字之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个二叉树，它的每个结点都存放一个 0-9 的数字，每条从根到叶子节点的路径都代表一个数字。 例如：路径 1-&gt;2-&gt;3 表示数字123
+计算从根节点到叶子节点生成的所有数字之和。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是回溯，搞一个Long long ans，每次遍历到叶子节点，把值拼上，加到全局ans里即可。如果太长的话可以考虑用字符串加法，字符串加法直接套模板即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/</t>
+  </si>
+  <si>
+    <t>克隆图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图、DFS、BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定无向连通图中一个节点的引用，返回该图的深拷贝（克隆）。图中的每个节点都包含它的值 val（Int） 和其邻居的列表（list[Node]）。</t>
+  </si>
+  <si>
+    <t>BFS遍历，先得到整张图的信息（邻接表），再复原出原图的深拷贝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>只出现一次的数字II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非空整数数组，除了某个元素只出现一次以外，其余每个元素均出现了三次。找出那个只出现了一次的元素。</t>
+  </si>
+  <si>
+    <t>整体思路在算法笔记中有记录。核心思想在于创建一种三进制，满3变0，剩下的那个就是只出现一次的元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number-ii/</t>
+  </si>
+  <si>
+    <t>二叉树的前序遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常按迭代版先序遍历模板走就行。递归的话傻子都能写。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>核心在于使用哈希链表。以达成查找O(1) （哈希表的特性），增删也能O(1) （链表的特性）</t>
+  </si>
+  <si>
+    <t>至多包含两个不同字符的最长字串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串 s ，找出 至多 包含两个不同字符的最长子串 t 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-with-at-most-two-distinct-characters/</t>
+  </si>
+  <si>
+    <t>在滑动窗口辅助下搞一个哈希表，或者set。滑动窗口具体可以用双指针实现，一个在前面正常遍历字符串，另一个在当前窗口中字符数量超过2时持续跟进，直到符合要求为止。虽然是双重循环，但时间复杂度仍是O(n)，因为每个元素最多被拿进窗口一次，被拿出窗口一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树迭代器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、树、设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 一种方法是耍赖法直接将给定的BST遍历一遍，然后存到数组中。但是空间开销很大，实际上是违反了迭代器的设计原则的
+2. 先写出迭代版中序遍历，再稍微拆分、修改一下即可实现迭代器版本。其实就是将正常迭代版中序遍历所用的栈作为一个全局变量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-search-tree-iterator/</t>
+  </si>
+  <si>
+    <t>二叉树的右视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一棵二叉树，想象自己站在它的右侧，按照从顶部到底部的顺序，返回从右侧所能看到的节点值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是层次遍历（或BFS），每次存正向遍历的结果，反向输出就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>按数字范围与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定范围 [m, n]，其中 0 &lt;= m &lt;= n &lt;= 2147483647，返回此范围内所有数字的按位与（包含 m, n 两端点）。</t>
+  </si>
+  <si>
+    <t>暴力法必超时，毕竟题中已经给了范围很大。
+想象一下，数字范围的按位与，其实只要从m开始的所有数中，只要有一个数的某一位是0，那么结果中这一位必是0.
+所以n比m多出来那部分肯定必是0，其实只要找到m和n的公共前缀即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/</t>
+  </si>
+  <si>
+    <t>添加与搜索单词-数据结构设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、字典树、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个支持 addWord(word)，和search(word)的数据结构。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接使用Trie就行了，具体到每个节点，不要用哈希表存子节点，如果已知都是小写字母，直接用一个26定长数组存就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-and-search-word-data-structure-design/</t>
+  </si>
+  <si>
+    <t>打家劫舍II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方所有的房屋都围成一圈，这意味着第一个房屋和最后一个房屋是紧挨着的。同时，相邻的房屋装有相互连通的防盗系统，如果两间相邻的房屋在同一晚上被小偷闯入，系统会自动报警。 求在不触动报警装置的情况下，能够偷窃到的最高金额。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是在打家劫舍普通版的基础上加了个成环的条件，只要将问题转化为分别求普通版0到n-1，以及1到n的最大值，再对这两个取最大值即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber-ii/</t>
+  </si>
+  <si>
+    <t>存在重复元素III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、orderedMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组，判断数组中是否有两个不同的索引 i 和 j，使得 nums [i] 和 nums [j] 的差的绝对值最大为 t，并且 i 和 j 之间的差的绝对值最大为 ķ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力法超时。预排序可以过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/contains-duplicate-iii/</t>
+  </si>
+  <si>
+    <t>为运算表达式设计优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个含有数字和运算符的字符串，为表达式添加括号，改变其运算优先级以求出不同的结果。你需要给出所有可能的组合的结果。有效的运算符号包含 +, - 以及 * </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在能添加符号的地方尝试添加符号，然后递归左右两个子表达式。（这题是看了思路才写出来的，最好再联系一遍）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/different-ways-to-add-parentheses/</t>
+  </si>
+  <si>
+    <t>最短单词距离II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设计一个类，使该类的构造函数能够接收一个单词列表。然后再实现一个方法，该方法能够分别接收两个单词 word1 和 word2，并返回列表中这两个单词之间的最短距离。您的方法将被以不同的参数调用 多次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表，&lt;word, vector&lt;index&gt;&gt;， 然后遍历找就行了，也没什么别的办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-word-distance-ii/</t>
+  </si>
+  <si>
+    <t>中心对称数II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归、数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心对称数是指一个数字在旋转了 180 度之后看起来依旧相同的数字（或者上下颠倒地看）。
+找到所有长度为n的中心对称数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为奇偶两种情况讨论，而且还要考虑有些数不能放中间，如6或9，而且0不能放在头和尾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/strobogrammatic-number-ii/</t>
+  </si>
+  <si>
+    <t>只出现一次的数字III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数数组 nums，其中恰好有两个元素只出现一次，其余所有元素均出现两次。 找出只出现一次的那两个元素。</t>
+  </si>
+  <si>
+    <t>注意这里有两个元素出现一次。
+二分法，先整体求异或，然后异或得到的结果，取最低位的1，然后通过这个1，将数组分成两部分。两部分再分别异或就可分别得到两个结果。
+原理在于这两个数的那个位必不相同，由此分出的两部分，必分别包含这两个数，而且其他数在这两个数组中都保证出现两次，这样分别异或的结果就必是这两个数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number-iii/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3326,6 +4337,48 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3352,7 +4405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3402,6 +4455,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3719,10 +4790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A2:I155"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="D170" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3739,203 +4810,230 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="6">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>647</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>648</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>649</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="8" t="s">
-        <v>53</v>
+      <c r="I4" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="6">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="136">
       <c r="A6" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34">
       <c r="A7" s="6">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34">
       <c r="A8" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="6">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -3944,564 +5042,568 @@
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="6">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>651</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>652</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>653</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34">
+      <c r="I10" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="119">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>655</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34">
       <c r="A12" s="6">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="34">
+      <c r="I12" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="6">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34">
       <c r="A14" s="6">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="68">
-      <c r="A15" s="6">
-        <v>118</v>
-      </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>656</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>657</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>658</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="8" t="s">
-        <v>72</v>
+      <c r="I15" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34">
       <c r="A16" s="6">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>77</v>
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="34">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="6">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="34">
       <c r="A18" s="6">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>661</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>344</v>
+        <v>662</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>84</v>
+        <v>663</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="34">
+      <c r="I18" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
       <c r="A19" s="6">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="136">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34">
       <c r="A20" s="6">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>665</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>95</v>
+        <v>666</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>111</v>
+        <v>667</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+      <c r="I20" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="6">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>9</v>
+        <v>338</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34">
       <c r="A22" s="6">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="6">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>107</v>
+        <v>669</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34">
+      <c r="A24" s="6">
         <v>108</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="119">
-      <c r="A24" s="6">
-        <v>28</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="119">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="6">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>673</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>117</v>
+        <v>674</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>675</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="85">
+      <c r="I25" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="6">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>122</v>
+        <v>677</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>678</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>123</v>
+        <v>679</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>124</v>
+        <v>680</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34">
+      <c r="I26" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="6">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>682</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>144</v>
+        <v>683</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>145</v>
+        <v>684</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="51">
+      <c r="I27" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
       <c r="A28" s="6">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="8" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="68">
       <c r="A29" s="6">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
       <c r="A30" s="6">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>7</v>
@@ -4510,230 +5612,228 @@
         <v>136</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
       <c r="A31" s="6">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="6">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="34">
       <c r="A33" s="6">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>150</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34">
       <c r="A34" s="6">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="85">
       <c r="A35" s="6">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="119">
       <c r="A36" s="6">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>162</v>
+        <v>686</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="34">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="6">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="34">
       <c r="A38" s="6">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>10</v>
+        <v>182</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
-        <v>180</v>
+      <c r="I38" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
@@ -4741,7 +5841,7 @@
         <v>189</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>69</v>
@@ -4750,2012 +5850,1930 @@
         <v>7</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="29" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="34">
       <c r="A40" s="6">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="34">
       <c r="A41" s="6">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>185</v>
+        <v>211</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="102">
       <c r="A42" s="6">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="68">
       <c r="A43" s="6">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>146</v>
+        <v>45</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34">
       <c r="A44" s="6">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>197</v>
+        <v>687</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>199</v>
+        <v>688</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>200</v>
+        <v>689</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="8" t="s">
-        <v>201</v>
+      <c r="I44" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34">
       <c r="A45" s="6">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="34">
       <c r="A46" s="6">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51">
       <c r="A47" s="6">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>212</v>
+        <v>691</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="34">
+      <c r="I47" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68">
       <c r="A48" s="6">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>214</v>
+        <v>693</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>215</v>
+        <v>694</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>84</v>
+        <v>695</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
+      <c r="I48" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="6">
-        <v>412</v>
+        <v>226</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>697</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>220</v>
+        <v>698</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>221</v>
+        <v>699</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
+      <c r="I49" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="34">
       <c r="A50" s="6">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>223</v>
+        <v>701</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>40</v>
+        <v>702</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>84</v>
+        <v>703</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="78" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="I50" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
+      <c r="A51" s="6">
+        <v>232</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="97" customHeight="1">
+      <c r="I51" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="34">
       <c r="A52" s="6">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="8" t="s">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
-      <c r="A53" s="9">
-        <v>146</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>234</v>
+      <c r="A53" s="6">
+        <v>235</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>235</v>
+        <v>711</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>237</v>
+        <v>712</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="29" customHeight="1">
       <c r="A54" s="6">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34">
+      <c r="A55" s="6">
         <v>242</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="68">
-      <c r="A55" s="6">
-        <v>300</v>
-      </c>
       <c r="B55" s="6" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="8" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="6">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>247</v>
+        <v>714</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>276</v>
+        <v>715</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51">
+      <c r="A57" s="6">
+        <v>246</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34">
+      <c r="A58" s="6">
+        <v>252</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="74" customHeight="1">
-      <c r="A57" s="6">
-        <v>322</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68">
-      <c r="A58" s="7">
-        <v>15</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="H58" s="6"/>
+      <c r="I58" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34">
+      <c r="A59" s="6">
         <v>258</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="B59" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
-      <c r="A59" s="7">
-        <v>46</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="8" t="s">
-        <v>270</v>
+      <c r="I59" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34">
       <c r="A60" s="6">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>262</v>
+        <v>730</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>10</v>
+        <v>731</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="8" t="s">
-        <v>266</v>
+      <c r="I60" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="34">
       <c r="A61" s="6">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>10</v>
+        <v>191</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="97" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34">
       <c r="A62" s="6">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>9</v>
+        <v>196</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="8" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="34">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
+        <v>283</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="68">
+      <c r="A64" s="6">
+        <v>292</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
+      <c r="A65" s="6">
+        <v>326</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="68">
+      <c r="A66" s="6">
+        <v>344</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34">
+      <c r="A67" s="6">
+        <v>346</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="34">
+      <c r="A68" s="6">
+        <v>350</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17">
+      <c r="A69" s="6">
+        <v>371</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" s="10" t="s">
+    </row>
+    <row r="70" spans="1:9" ht="34">
+      <c r="A70" s="6">
+        <v>387</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34">
+      <c r="A71" s="6">
+        <v>392</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="68">
+      <c r="A72" s="6">
+        <v>412</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="51">
+      <c r="A73" s="1">
+        <v>415</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="85">
-      <c r="A64" s="1">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="85">
-      <c r="A65" s="1">
-        <v>215</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="68">
-      <c r="A66" s="3">
-        <v>200</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="85">
-      <c r="A67" s="1">
-        <v>91</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="85">
-      <c r="A68" s="1">
-        <v>19</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="68">
-      <c r="A69" s="1">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="51">
-      <c r="A70" s="1">
-        <v>279</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="68">
-      <c r="A71" s="1">
-        <v>56</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="34">
-      <c r="A72" s="1">
-        <v>22</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="160">
-      <c r="A73" s="1">
-        <v>240</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="I73" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34">
+      <c r="A74" s="1">
+        <v>437</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="85">
-      <c r="A74" s="1">
-        <v>94</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>337</v>
+        <v>754</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>338</v>
+        <v>755</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="34">
+      <c r="I74" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="68">
       <c r="A75" s="1">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>340</v>
+        <v>757</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>758</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>343</v>
+        <v>760</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1">
-        <v>236</v>
+        <v>461</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>345</v>
+        <v>761</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>346</v>
+        <v>762</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>348</v>
+        <v>763</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>347</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="34">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>557</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>349</v>
+        <v>765</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>352</v>
+        <v>766</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="119">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1">
-        <v>227</v>
+        <v>581</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>769</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>356</v>
+        <v>770</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="85">
+      <c r="A79" s="1">
+        <v>617</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="85">
+      <c r="A80" s="1">
+        <v>687</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="51">
-      <c r="A79" s="1">
-        <v>152</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="34">
-      <c r="A80" s="1">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I80" s="2" t="s">
-        <v>365</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="51">
       <c r="A81" s="1">
-        <v>55</v>
+        <v>728</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>367</v>
+        <v>782</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>369</v>
+        <v>783</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>370</v>
+        <v>784</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="51">
+      <c r="I81" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="34">
       <c r="A82" s="1">
-        <v>105</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>372</v>
+        <v>933</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>373</v>
+        <v>787</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>374</v>
+        <v>788</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>789</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="51">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="34">
       <c r="A83" s="1">
-        <v>138</v>
+        <v>997</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>377</v>
+        <v>791</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>378</v>
+        <v>792</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>379</v>
+        <v>793</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>381</v>
+        <v>794</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="85">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17">
       <c r="A84" s="1">
-        <v>240</v>
+        <v>1042</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>328</v>
+        <v>796</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17">
+      <c r="C85" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="90" spans="1:9" ht="51">
+      <c r="A90" s="6">
+        <v>2</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="51">
+      <c r="A91" s="6">
+        <v>3</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="85">
+      <c r="A92" s="6">
+        <v>5</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="34">
+      <c r="A93" s="1">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="85">
+      <c r="A94" s="1">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="68">
+      <c r="A95" s="7">
+        <v>15</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="16" customFormat="1" ht="68">
+      <c r="A96" s="17">
+        <v>16</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="34">
+      <c r="A97" s="1">
+        <v>17</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="F97" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="85">
+      <c r="A98" s="1">
+        <v>18</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="34">
-      <c r="A85" s="1">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="51">
-      <c r="A86" s="1">
-        <v>102</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="34">
-      <c r="A87" s="3">
-        <v>48</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="51">
-      <c r="A88" s="1">
-        <v>103</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="34">
-      <c r="A89" s="1">
-        <v>208</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="85">
-      <c r="A90" s="1">
-        <v>139</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="51">
-      <c r="A91" s="1">
-        <v>347</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="85">
-      <c r="A92" s="3">
-        <v>287</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="68">
-      <c r="A93" s="1">
-        <v>62</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="34">
-      <c r="A94" s="1">
-        <v>384</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="51">
-      <c r="A95" s="1">
-        <v>395</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="34">
-      <c r="A96" s="1">
-        <v>131</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="51">
-      <c r="A97" s="1">
-        <v>162</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="34">
-      <c r="A98" s="3">
-        <v>50</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="I98" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="51">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="85">
       <c r="A99" s="1">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>446</v>
+        <v>298</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="34">
-      <c r="A100" s="3">
-        <v>34</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>307</v>
+      <c r="A100" s="1">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>84</v>
+        <v>225</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>451</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="68">
       <c r="A101" s="1">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>452</v>
+        <v>805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>454</v>
+        <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>455</v>
+        <v>806</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>456</v>
+        <v>807</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="34">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="68">
       <c r="A102" s="1">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>458</v>
+        <v>300</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>459</v>
+        <v>302</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>460</v>
+        <v>303</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="68">
-      <c r="A103" s="1">
-        <v>130</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="34">
+      <c r="A103" s="3">
+        <v>34</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>9</v>
+        <v>225</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="51">
       <c r="A104" s="1">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="34">
-      <c r="A105" s="1">
-        <v>348</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="51">
-      <c r="A106" s="1">
-        <v>454</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="51">
+      <c r="A105" s="7">
+        <v>46</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="34">
+      <c r="A106" s="3">
+        <v>48</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>477</v>
+        <v>387</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="68">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="34">
       <c r="A107" s="1">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="34">
       <c r="A108" s="3">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>485</v>
+        <v>301</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G108" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="51">
-      <c r="A109" s="1">
-        <v>36</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="68">
+      <c r="A109" s="6">
+        <v>54</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="51">
       <c r="A110" s="1">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>493</v>
+        <v>361</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>494</v>
+        <v>362</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>495</v>
+        <v>364</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="34">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="68">
       <c r="A111" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>497</v>
+        <v>311</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>498</v>
+        <v>313</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>499</v>
+        <v>314</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>500</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="51">
       <c r="A112" s="1">
-        <v>341</v>
+        <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>501</v>
+        <v>810</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>502</v>
+        <v>811</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>504</v>
+        <v>813</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="34">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="51">
       <c r="A113" s="1">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>505</v>
+        <v>814</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>84</v>
+        <v>815</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>508</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="68">
       <c r="A114" s="1">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="119">
-      <c r="A115" s="3">
-        <v>98</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>88</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="34">
+      <c r="A115" s="1">
+        <v>63</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>84</v>
+        <v>819</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="102">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="34">
       <c r="A116" s="1">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>518</v>
+        <v>822</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>519</v>
+        <v>823</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>520</v>
+        <v>824</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>521</v>
+        <v>825</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="68">
@@ -6763,976 +7781,2670 @@
         <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="34">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="68">
       <c r="A118" s="1">
+        <v>75</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="34">
+      <c r="A119" s="1">
+        <v>78</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="34">
+      <c r="A120" s="1">
+        <v>79</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="85">
-      <c r="A119" s="1">
-        <v>127</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="102">
-      <c r="A120" s="1">
-        <v>116</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="34">
+    </row>
+    <row r="121" spans="1:9" ht="51">
       <c r="A121" s="1">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>539</v>
+        <v>826</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>540</v>
+        <v>827</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="68">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="51">
       <c r="A122" s="1">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>542</v>
+        <v>830</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="G122" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="68">
+      <c r="A123" s="1">
+        <v>89</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="85">
-      <c r="A123" s="1">
-        <v>285</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I123" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="34">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="85">
       <c r="A124" s="1">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>550</v>
+        <v>293</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>551</v>
+        <v>294</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>552</v>
+        <v>295</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>553</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="85">
       <c r="A125" s="1">
+        <v>94</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="102">
+      <c r="A126" s="1">
+        <v>96</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="119">
+      <c r="A127" s="3">
+        <v>98</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="51">
+      <c r="A128" s="1">
+        <v>102</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="51">
+      <c r="A129" s="1">
+        <v>103</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51">
+      <c r="A130" s="1">
+        <v>105</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="102">
+      <c r="A131" s="1">
+        <v>109</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="68">
+      <c r="A132" s="1">
+        <v>113</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="85">
+      <c r="A133" s="1">
         <v>114</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="51">
-      <c r="A126" s="1">
-        <v>261</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="G126" s="5" t="s">
+      <c r="D133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="102">
+      <c r="A134" s="1">
+        <v>116</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="85">
+      <c r="A135" s="1">
+        <v>127</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="68">
+      <c r="A136" s="1">
+        <v>129</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="68">
+      <c r="A137" s="1">
+        <v>130</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="85">
-      <c r="A127" s="1">
-        <v>319</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="92" customHeight="1">
-      <c r="A128" s="1">
-        <v>18</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="I137" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="34">
+      <c r="A138" s="1">
+        <v>131</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="51">
+      <c r="A139" s="1">
+        <v>133</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="92" customHeight="1">
-      <c r="A129" s="1">
-        <v>142</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" ht="136">
-      <c r="A130" s="1">
-        <v>560</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="68">
-      <c r="A131" s="1">
-        <v>89</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="119">
-      <c r="A132" s="1">
-        <v>310</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34">
-      <c r="A133" s="1">
-        <v>323</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="F134" s="3"/>
-      <c r="G134" s="5"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="F135" s="3"/>
-      <c r="G135" s="5"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="137" spans="1:9" ht="126" customHeight="1"/>
-    <row r="138" spans="1:9" ht="51">
-      <c r="A138" s="1">
-        <v>149</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="170">
-      <c r="A139" s="3">
-        <v>42</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I139" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="34">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="68">
       <c r="A140" s="1">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>563</v>
+        <v>362</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>623</v>
+        <v>473</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="119">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="51">
       <c r="A141" s="1">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>566</v>
+        <v>858</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>10</v>
+        <v>859</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="51">
       <c r="A142" s="1">
-        <v>458</v>
+        <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>573</v>
+        <v>371</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="68">
+        <v>225</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="85">
       <c r="A143" s="1">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>583</v>
+        <v>21</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>584</v>
+        <v>401</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>585</v>
+        <v>402</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="51">
       <c r="A144" s="1">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>10</v>
+        <v>620</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="34">
       <c r="A145" s="1">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>590</v>
+        <v>862</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>593</v>
+        <v>863</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>864</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="68">
-      <c r="A146" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="51">
+      <c r="A146" s="9">
+        <v>146</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="68">
-      <c r="A147" s="1">
-        <v>295</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>600</v>
+      <c r="H146" s="6"/>
+      <c r="I146" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="34">
+      <c r="A147" s="7">
+        <v>148</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>84</v>
+        <v>274</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="85">
-      <c r="A148" s="3">
-        <v>4</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>555</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17">
+      <c r="A148" s="1">
+        <v>150</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="119">
+        <v>863</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="51">
       <c r="A149" s="1">
-        <v>381</v>
+        <v>152</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>608</v>
+        <v>352</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>84</v>
+        <v>353</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>611</v>
+        <v>355</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="102">
       <c r="A150" s="1">
+        <v>159</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="51">
+      <c r="A151" s="1">
+        <v>162</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="102">
+      <c r="A152" s="1">
+        <v>173</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="34">
+      <c r="A153" s="6">
+        <v>179</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="I153" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="34">
+      <c r="A154" s="6">
+        <v>199</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="6"/>
+      <c r="I154" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="68">
+      <c r="A155" s="3">
+        <v>200</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="22" customFormat="1" ht="102">
+      <c r="A156" s="22">
+        <v>201</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="34">
+      <c r="A157" s="1">
+        <v>207</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="34">
+      <c r="A158" s="1">
+        <v>208</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="34">
+      <c r="A159" s="1">
+        <v>210</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="51">
+      <c r="A160" s="1">
+        <v>211</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="85">
+      <c r="A161" s="1">
+        <v>213</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="85">
+      <c r="A162" s="1">
+        <v>215</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="G162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="51">
+      <c r="A163" s="1">
+        <v>220</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="119">
+      <c r="A164" s="1">
+        <v>227</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="34">
+      <c r="A165" s="3">
+        <v>230</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="51">
+      <c r="A166" s="1">
+        <v>236</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="34">
+      <c r="A167" s="1">
+        <v>238</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="160">
+      <c r="A168" s="1">
+        <v>240</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="51">
+      <c r="A169" s="1">
+        <v>241</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="68">
+      <c r="A170" s="1">
+        <v>244</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="51">
+      <c r="A171" s="1">
+        <v>247</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="22"/>
+      <c r="I171" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="34">
+      <c r="A172" s="1">
+        <v>251</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="68">
+      <c r="A173" s="1">
+        <v>253</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="136">
+      <c r="A174" s="1">
+        <v>260</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="92" customHeight="1">
+      <c r="A175" s="1">
+        <v>261</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="92" customHeight="1">
+      <c r="A176" s="1">
+        <v>277</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="51">
+      <c r="A177" s="1">
+        <v>279</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="85">
+      <c r="A178" s="1">
+        <v>285</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="85">
+      <c r="A179" s="3">
+        <v>287</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="51">
+      <c r="A180" s="1">
+        <v>289</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="68">
+      <c r="A181" s="6">
+        <v>300</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H181" s="6"/>
+      <c r="I181" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="119">
+      <c r="A182" s="1">
+        <v>310</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="85">
+      <c r="A183" s="1">
+        <v>319</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="51">
+      <c r="A184" s="6">
+        <v>322</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H184" s="6"/>
+      <c r="I184" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="34">
+      <c r="A185" s="1">
+        <v>323</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="51">
+      <c r="A186" s="1">
+        <v>328</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="68">
+      <c r="A187" s="1">
+        <v>334</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="51">
+      <c r="A188" s="1">
+        <v>341</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="51">
+      <c r="A189" s="1">
+        <v>347</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="34">
+      <c r="A190" s="1">
+        <v>348</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="102">
+      <c r="A191" s="6">
+        <v>378</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H191" s="6"/>
+      <c r="I191" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="34">
+      <c r="A192" s="1">
+        <v>380</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="34">
+      <c r="A193" s="1">
+        <v>384</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="51">
+      <c r="A194" s="1">
+        <v>395</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="51">
+      <c r="A195" s="1">
+        <v>454</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="136">
+      <c r="A196" s="1">
+        <v>560</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="17">
+      <c r="A197" s="1">
+        <v>164</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="78" customHeight="1">
+      <c r="A201" s="3">
+        <v>4</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="97" customHeight="1">
+      <c r="A202" s="1">
+        <v>23</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="34">
+      <c r="A203" s="1">
+        <v>25</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="170">
+      <c r="A204" s="3">
+        <v>42</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="17">
+      <c r="A205" s="1">
+        <v>45</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="34">
+      <c r="A206" s="1">
+        <v>76</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="74" customHeight="1">
+      <c r="A207" s="1">
+        <v>84</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="119">
+      <c r="A208" s="1">
+        <v>124</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="17">
+      <c r="A209" s="1">
+        <v>128</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="51">
+      <c r="A210" s="1">
+        <v>149</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="136">
+      <c r="A211" s="1">
+        <v>269</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="97" customHeight="1">
+      <c r="A212" s="1">
+        <v>287</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="68">
+      <c r="A213" s="1">
+        <v>295</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="68">
+      <c r="A214" s="1">
+        <v>301</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="119">
+      <c r="A215" s="1">
+        <v>381</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="17">
+      <c r="A216" s="1">
+        <v>458</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="68">
+      <c r="A217" s="1">
+        <v>862</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I217" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="68">
-      <c r="A151" s="1">
-        <v>862</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="34">
-      <c r="A152" s="1">
-        <v>76</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="17">
-      <c r="A153" s="1">
-        <v>164</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="136">
-      <c r="A154" s="1">
-        <v>269</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17">
-      <c r="A155" s="1">
-        <v>128</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>555</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I197">
+    <sortCondition ref="D2:D197"/>
+    <sortCondition ref="A2:A197"/>
+  </sortState>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{347CD108-42E7-964F-B32D-C66F9380CC94}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{EEB3BC31-5FD0-3B4D-AAB8-E9BFC806510E}"/>
-    <hyperlink ref="I10" r:id="rId3" xr:uid="{729FCC07-EBFB-C140-81D0-AB8926F5C5E4}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{523CB403-9651-B441-87E1-FA5755A13E08}"/>
-    <hyperlink ref="I14" r:id="rId5" xr:uid="{F6053D66-0F51-D545-81A7-5DF6A34504CE}"/>
-    <hyperlink ref="I15" r:id="rId6" xr:uid="{BD24304F-08C0-FC4D-84FC-EB64E0372C53}"/>
-    <hyperlink ref="I16" r:id="rId7" xr:uid="{CE9DC9C4-3B51-924C-BE0D-02F896C2BB5D}"/>
-    <hyperlink ref="I17" r:id="rId8" xr:uid="{1974A76A-5844-3B43-A1EF-B66821A29C09}"/>
-    <hyperlink ref="I18" r:id="rId9" xr:uid="{4BFFA33F-016E-774D-9430-13399C7C9B8A}"/>
-    <hyperlink ref="I19" r:id="rId10" xr:uid="{D48253C1-237F-A548-BDF1-92D6111B10EB}"/>
-    <hyperlink ref="I20" r:id="rId11" xr:uid="{45356A84-D7EF-C949-9287-D390DF837C4A}"/>
-    <hyperlink ref="I21" r:id="rId12" xr:uid="{A9BD3054-A7E8-5741-AF2E-C746E8F2075C}"/>
-    <hyperlink ref="I22" r:id="rId13" xr:uid="{5E718CD3-026C-674A-89E1-EC5AC9F74CD4}"/>
-    <hyperlink ref="I23" r:id="rId14" xr:uid="{AD478E76-D09C-CD4F-92E7-1F75ABEF3CE5}"/>
-    <hyperlink ref="I24" r:id="rId15" xr:uid="{AA8B80CB-86B8-AB45-992E-11E100F3D20A}"/>
-    <hyperlink ref="I25" r:id="rId16" xr:uid="{8A47A2ED-28A6-4842-93CF-663769B6699F}"/>
-    <hyperlink ref="I26" r:id="rId17" xr:uid="{76E04A83-01B4-3342-9AE1-EE3E1D6599BC}"/>
-    <hyperlink ref="I28" r:id="rId18" xr:uid="{D837AB18-496B-9E4F-986D-FBFCF506171D}"/>
-    <hyperlink ref="I29" r:id="rId19" xr:uid="{066F1E11-4969-B840-BBDC-3A6D9D2C921E}"/>
-    <hyperlink ref="I30" r:id="rId20" xr:uid="{9A9DE549-F981-AF4E-AEFC-2B45CD10B54E}"/>
-    <hyperlink ref="I31" r:id="rId21" xr:uid="{DF7997F5-2577-F445-A562-0017FCC8554B}"/>
-    <hyperlink ref="I33" r:id="rId22" xr:uid="{2FCB0934-28B1-E248-BA6C-18C3A8EAF75A}"/>
-    <hyperlink ref="I32" r:id="rId23" xr:uid="{539DD77D-99D9-5A4A-B33E-A9EEC8C94C67}"/>
-    <hyperlink ref="I34" r:id="rId24" xr:uid="{B88A8284-5B6C-3B4A-B0F3-228E746CA903}"/>
-    <hyperlink ref="I37" r:id="rId25" xr:uid="{9A08525D-E280-884B-A11B-8030A31914ED}"/>
-    <hyperlink ref="I40" r:id="rId26" xr:uid="{2640BBF0-A458-4146-8DD7-FBB4B313D4DE}"/>
-    <hyperlink ref="I41" r:id="rId27" xr:uid="{AC8A11C7-57D7-1E4A-A8C9-65C1D808FE15}"/>
-    <hyperlink ref="I42" r:id="rId28" xr:uid="{436D8265-B9E4-4B46-9ABE-0DE8A159C4B4}"/>
-    <hyperlink ref="I43" r:id="rId29" xr:uid="{134323BC-3511-454A-9623-74827F18FD03}"/>
-    <hyperlink ref="I44" r:id="rId30" xr:uid="{A7B04F81-EB3D-9E4E-97A7-3AE5F25E0335}"/>
-    <hyperlink ref="I45" r:id="rId31" xr:uid="{D1A7093D-67BD-DF4C-81A1-60707B8AB1D6}"/>
-    <hyperlink ref="I46" r:id="rId32" xr:uid="{6A1E70F8-191B-4C48-8EB1-42623105358F}"/>
-    <hyperlink ref="I47" r:id="rId33" xr:uid="{6FDBC382-5FB3-B049-9BA5-91571370762B}"/>
-    <hyperlink ref="I48" r:id="rId34" xr:uid="{4F371AB4-A4D6-A94B-A9CE-5B4094D6DFFB}"/>
-    <hyperlink ref="I49" r:id="rId35" xr:uid="{2ADED626-54C8-AA4C-B97B-E33FA1F87333}"/>
-    <hyperlink ref="I50" r:id="rId36" xr:uid="{05CE4647-966E-DF48-8CA1-03A83C62482B}"/>
-    <hyperlink ref="I52" r:id="rId37" xr:uid="{56D06695-5D15-E243-A3E9-3C3764F61C8B}"/>
-    <hyperlink ref="I53" r:id="rId38" xr:uid="{10802715-6C55-A749-BE7D-04FD97B8A84F}"/>
-    <hyperlink ref="I54" r:id="rId39" xr:uid="{8A6DB2B8-6147-224A-85A2-5D6543F29DDA}"/>
-    <hyperlink ref="I56" r:id="rId40" xr:uid="{2EC71B1F-7CDB-5346-B4E9-77FA3E46A7BF}"/>
-    <hyperlink ref="I57" r:id="rId41" xr:uid="{2B2E8B8F-0A57-D14F-A511-9C27FDB41404}"/>
-    <hyperlink ref="I58" r:id="rId42" xr:uid="{0A921BCE-8D13-A348-AA4E-2C1848B3300E}"/>
-    <hyperlink ref="I60" r:id="rId43" xr:uid="{D49B6F2B-4BF1-D344-A7A8-00A3BD014DE3}"/>
-    <hyperlink ref="I59" r:id="rId44" xr:uid="{7F3F72E3-8DCD-A940-AE00-266FE3282D24}"/>
-    <hyperlink ref="I62" r:id="rId45" xr:uid="{6570C62B-EBD6-C345-A1C8-8730049EC75D}"/>
-    <hyperlink ref="I61" r:id="rId46" xr:uid="{AE8A3BA5-3AEB-E740-883F-60D4C68AD8EF}"/>
-    <hyperlink ref="I63" r:id="rId47" xr:uid="{A0E7F87E-5762-0240-92A3-151F3BD70B28}"/>
-    <hyperlink ref="I64" r:id="rId48" xr:uid="{663A01BF-5359-1840-B738-7AE8EB25DF5F}"/>
-    <hyperlink ref="I65" r:id="rId49" xr:uid="{E5F7D7CA-5EA8-614F-A752-02B5DD62160C}"/>
-    <hyperlink ref="I66" r:id="rId50" xr:uid="{3B75AE1E-D981-4346-BD45-EE14C7FE1ABC}"/>
-    <hyperlink ref="I67" r:id="rId51" xr:uid="{F4425CE2-2E4A-C541-A0D3-E7FB676DC1DC}"/>
-    <hyperlink ref="I69" r:id="rId52" xr:uid="{034D132E-0AC7-A54C-827B-217B8346D3E8}"/>
-    <hyperlink ref="I68" r:id="rId53" xr:uid="{CECD3921-49CC-2C46-B156-DFC25E6634F5}"/>
-    <hyperlink ref="I70" r:id="rId54" xr:uid="{44D882DD-A208-3A46-AF30-B537B46F36A3}"/>
-    <hyperlink ref="I71" r:id="rId55" xr:uid="{D6BBF4B8-6DE6-B44C-BE9A-59F748503344}"/>
-    <hyperlink ref="I72" r:id="rId56" xr:uid="{F7A37C63-2DA6-5741-BB36-AD325FD48EEC}"/>
-    <hyperlink ref="I73" r:id="rId57" xr:uid="{B5B031F8-BDFC-FB4D-9668-7B91E783BB9A}"/>
-    <hyperlink ref="I74" r:id="rId58" xr:uid="{E390BB61-119F-074F-A4CF-39EB53A60739}"/>
-    <hyperlink ref="I75" r:id="rId59" xr:uid="{7DAABFD6-9F43-304A-AE71-4B5A2B8D0A61}"/>
-    <hyperlink ref="I76" r:id="rId60" xr:uid="{42D70199-901A-704F-9F04-E82F8B4318A4}"/>
-    <hyperlink ref="I77" r:id="rId61" xr:uid="{83FFDE3A-D0BB-914A-B0D4-5A63ECE4F57D}"/>
-    <hyperlink ref="I78" r:id="rId62" xr:uid="{80B09E42-894C-B741-AFE6-0B5FC33E161E}"/>
-    <hyperlink ref="I79" r:id="rId63" xr:uid="{CB39A174-4973-5A4D-89C1-FF9083D4CDAA}"/>
-    <hyperlink ref="I80" r:id="rId64" xr:uid="{8F6F482B-2410-DC43-B1A4-755ED6F94166}"/>
-    <hyperlink ref="I81" r:id="rId65" xr:uid="{D8829200-CF7F-F44B-9685-290000EE0409}"/>
-    <hyperlink ref="I82" r:id="rId66" xr:uid="{FB536887-F9CF-4D4B-B785-DFD92CFCE8D1}"/>
-    <hyperlink ref="I83" r:id="rId67" xr:uid="{BBE16572-A311-A94D-82C7-FFCC65DA1868}"/>
-    <hyperlink ref="I84" r:id="rId68" xr:uid="{681F3BDA-A63D-3A4E-B12E-042EDD3C22D6}"/>
-    <hyperlink ref="I85" r:id="rId69" xr:uid="{6CE3BF1F-0CFA-644E-87FF-5819FE1235BB}"/>
-    <hyperlink ref="I86" r:id="rId70" xr:uid="{F08CACD5-5187-9E4F-9716-C4BEAEBD7881}"/>
-    <hyperlink ref="I87" r:id="rId71" xr:uid="{15E0D509-139D-FE41-8920-8934FF4380E0}"/>
-    <hyperlink ref="I88" r:id="rId72" xr:uid="{FB6FF3A3-EB10-7943-B588-3A6E3E35D02D}"/>
-    <hyperlink ref="I89" r:id="rId73" xr:uid="{6AD4965E-E4B8-6A4B-9AEE-2B42984A4228}"/>
-    <hyperlink ref="I90" r:id="rId74" xr:uid="{E5E972AC-2264-3040-8AA8-5838D70ACF47}"/>
-    <hyperlink ref="I91" r:id="rId75" xr:uid="{E3C7BFF1-474D-8347-933E-9D7320008801}"/>
-    <hyperlink ref="I92" r:id="rId76" xr:uid="{D0D1C1CA-4E4E-1543-ADC5-23BCB98B47C6}"/>
-    <hyperlink ref="I93" r:id="rId77" xr:uid="{D4596676-748B-6942-9E31-A844A1FF2A7B}"/>
-    <hyperlink ref="I94" r:id="rId78" xr:uid="{589B01A7-78B0-DE49-B683-B5D857113719}"/>
-    <hyperlink ref="I95" r:id="rId79" xr:uid="{3C843F11-D9C0-484F-B165-832EE0E29D02}"/>
-    <hyperlink ref="I96" r:id="rId80" xr:uid="{D471DE09-0454-4E4C-AC29-F7F16017CEEC}"/>
-    <hyperlink ref="I97" r:id="rId81" xr:uid="{3A163934-CD1B-9243-96CB-E0A6B6FDA7A9}"/>
-    <hyperlink ref="I98" r:id="rId82" xr:uid="{F6E7EC0D-1394-1344-8717-31C6D76ADA74}"/>
-    <hyperlink ref="I99" r:id="rId83" xr:uid="{B458E3D5-31DF-DA47-9164-E9AE642EDCAE}"/>
-    <hyperlink ref="I100" r:id="rId84" xr:uid="{74BD5B08-B3EE-0F4A-95B0-EAB873EBD414}"/>
-    <hyperlink ref="I101" r:id="rId85" xr:uid="{F29B15AF-4B41-C544-9A53-8E794F629CA6}"/>
-    <hyperlink ref="I102" r:id="rId86" xr:uid="{9921D283-58BA-164B-93E8-4C06F186A1C9}"/>
-    <hyperlink ref="I103" r:id="rId87" xr:uid="{C6F75269-8F08-EF4D-BFD5-2951EC147E6F}"/>
-    <hyperlink ref="I104" r:id="rId88" xr:uid="{749BA72F-54CD-064A-AF67-9044AA531A9B}"/>
-    <hyperlink ref="I105" r:id="rId89" xr:uid="{1664F26A-F8AB-7A40-AB58-E63AA7344C42}"/>
-    <hyperlink ref="I106" r:id="rId90" xr:uid="{E9CC483E-E1CB-464D-9D99-A95D272C832E}"/>
-    <hyperlink ref="I107" r:id="rId91" xr:uid="{897ECBB0-2503-9A4F-991E-3CB275C6C9F3}"/>
-    <hyperlink ref="I108" r:id="rId92" xr:uid="{8352D7FB-0856-2F46-9819-199144A17072}"/>
-    <hyperlink ref="I109" r:id="rId93" xr:uid="{95D939CF-FD9B-0B4C-97EB-CA4D33B8F2E5}"/>
-    <hyperlink ref="I110" r:id="rId94" xr:uid="{2BF0031D-3F19-3549-B12E-D48C5027B9D9}"/>
-    <hyperlink ref="I111" r:id="rId95" xr:uid="{E1FF2E62-3AF1-F549-8F2C-287D94F8AF40}"/>
-    <hyperlink ref="I112" r:id="rId96" xr:uid="{4142CD18-EA92-0846-867F-68676C667560}"/>
-    <hyperlink ref="I113" r:id="rId97" xr:uid="{E456ADA8-118F-0C4F-B3D8-891EC7739ABA}"/>
-    <hyperlink ref="I114" r:id="rId98" xr:uid="{2F597291-C9F8-364C-AB71-851633EDE7BF}"/>
-    <hyperlink ref="I115" r:id="rId99" xr:uid="{DD27DA91-F0AE-3D49-88D1-08599D4EA84B}"/>
-    <hyperlink ref="I116" r:id="rId100" xr:uid="{E92FB1D0-236D-AA47-BAD2-44CFE73FE70B}"/>
-    <hyperlink ref="I117" r:id="rId101" xr:uid="{A8E7256E-8D74-1742-B352-EE59A9952655}"/>
-    <hyperlink ref="I118" r:id="rId102" xr:uid="{7DA2AC5E-1F72-644C-A3CB-87145B4575DE}"/>
-    <hyperlink ref="I119" r:id="rId103" xr:uid="{E15A75D9-CBA4-C94A-A892-5CAE2CF35A8C}"/>
-    <hyperlink ref="I120" r:id="rId104" xr:uid="{F7C52E37-3FF2-8747-83CC-BA1306AF1304}"/>
-    <hyperlink ref="I121" r:id="rId105" xr:uid="{1DD00ABA-3BB9-204D-8077-BDFFA7DBE71E}"/>
-    <hyperlink ref="I122" r:id="rId106" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
-    <hyperlink ref="I123" r:id="rId107" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
-    <hyperlink ref="I124" r:id="rId108" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I138" r:id="rId109" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I139" r:id="rId110" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I140" r:id="rId111" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I141" r:id="rId112" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
-    <hyperlink ref="I125" r:id="rId113" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
-    <hyperlink ref="I127" r:id="rId114" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
-    <hyperlink ref="I126" r:id="rId115" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I143" r:id="rId116" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
-    <hyperlink ref="I145" r:id="rId117" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
-    <hyperlink ref="I146" r:id="rId118" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I147" r:id="rId119" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I149" r:id="rId120" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I150" r:id="rId121" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
-    <hyperlink ref="I151" r:id="rId122" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
-    <hyperlink ref="I128" r:id="rId123" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
-    <hyperlink ref="I130" r:id="rId124" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
-    <hyperlink ref="I131" r:id="rId125" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
-    <hyperlink ref="I132" r:id="rId126" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
-    <hyperlink ref="I133" r:id="rId127" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
-    <hyperlink ref="I154" r:id="rId128" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{347CD108-42E7-964F-B32D-C66F9380CC94}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{EEB3BC31-5FD0-3B4D-AAB8-E9BFC806510E}"/>
+    <hyperlink ref="I29" r:id="rId3" xr:uid="{729FCC07-EBFB-C140-81D0-AB8926F5C5E4}"/>
+    <hyperlink ref="I19" r:id="rId4" xr:uid="{523CB403-9651-B441-87E1-FA5755A13E08}"/>
+    <hyperlink ref="I33" r:id="rId5" xr:uid="{F6053D66-0F51-D545-81A7-5DF6A34504CE}"/>
+    <hyperlink ref="I28" r:id="rId6" xr:uid="{BD24304F-08C0-FC4D-84FC-EB64E0372C53}"/>
+    <hyperlink ref="I52" r:id="rId7" xr:uid="{CE9DC9C4-3B51-924C-BE0D-02F896C2BB5D}"/>
+    <hyperlink ref="I22" r:id="rId8" xr:uid="{1974A76A-5844-3B43-A1EF-B66821A29C09}"/>
+    <hyperlink ref="I21" r:id="rId9" xr:uid="{4BFFA33F-016E-774D-9430-13399C7C9B8A}"/>
+    <hyperlink ref="I34" r:id="rId10" xr:uid="{D48253C1-237F-A548-BDF1-92D6111B10EB}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{45356A84-D7EF-C949-9287-D390DF837C4A}"/>
+    <hyperlink ref="I32" r:id="rId12" xr:uid="{A9BD3054-A7E8-5741-AF2E-C746E8F2075C}"/>
+    <hyperlink ref="I42" r:id="rId13" xr:uid="{5E718CD3-026C-674A-89E1-EC5AC9F74CD4}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{AD478E76-D09C-CD4F-92E7-1F75ABEF3CE5}"/>
+    <hyperlink ref="I11" r:id="rId15" xr:uid="{AA8B80CB-86B8-AB45-992E-11E100F3D20A}"/>
+    <hyperlink ref="I36" r:id="rId16" xr:uid="{8A47A2ED-28A6-4842-93CF-663769B6699F}"/>
+    <hyperlink ref="I35" r:id="rId17" xr:uid="{76E04A83-01B4-3342-9AE1-EE3E1D6599BC}"/>
+    <hyperlink ref="I5" r:id="rId18" xr:uid="{D837AB18-496B-9E4F-986D-FBFCF506171D}"/>
+    <hyperlink ref="I66" r:id="rId19" xr:uid="{066F1E11-4969-B840-BBDC-3A6D9D2C921E}"/>
+    <hyperlink ref="I30" r:id="rId20" xr:uid="{DF7997F5-2577-F445-A562-0017FCC8554B}"/>
+    <hyperlink ref="I69" r:id="rId21" xr:uid="{2FCB0934-28B1-E248-BA6C-18C3A8EAF75A}"/>
+    <hyperlink ref="I24" r:id="rId22" xr:uid="{539DD77D-99D9-5A4A-B33E-A9EEC8C94C67}"/>
+    <hyperlink ref="I9" r:id="rId23" xr:uid="{B88A8284-5B6C-3B4A-B0F3-228E746CA903}"/>
+    <hyperlink ref="I68" r:id="rId24" xr:uid="{9A08525D-E280-884B-A11B-8030A31914ED}"/>
+    <hyperlink ref="I37" r:id="rId25" xr:uid="{2640BBF0-A458-4146-8DD7-FBB4B313D4DE}"/>
+    <hyperlink ref="I38" r:id="rId26" xr:uid="{AC8A11C7-57D7-1E4A-A8C9-65C1D808FE15}"/>
+    <hyperlink ref="I63" r:id="rId27" xr:uid="{436D8265-B9E4-4B46-9ABE-0DE8A159C4B4}"/>
+    <hyperlink ref="I61" r:id="rId28" xr:uid="{134323BC-3511-454A-9623-74827F18FD03}"/>
+    <hyperlink ref="I62" r:id="rId29" xr:uid="{A7B04F81-EB3D-9E4E-97A7-3AE5F25E0335}"/>
+    <hyperlink ref="I55" r:id="rId30" xr:uid="{D1A7093D-67BD-DF4C-81A1-60707B8AB1D6}"/>
+    <hyperlink ref="I14" r:id="rId31" xr:uid="{6A1E70F8-191B-4C48-8EB1-42623105358F}"/>
+    <hyperlink ref="I40" r:id="rId32" xr:uid="{6FDBC382-5FB3-B049-9BA5-91571370762B}"/>
+    <hyperlink ref="I41" r:id="rId33" xr:uid="{4F371AB4-A4D6-A94B-A9CE-5B4094D6DFFB}"/>
+    <hyperlink ref="I72" r:id="rId34" xr:uid="{2ADED626-54C8-AA4C-B97B-E33FA1F87333}"/>
+    <hyperlink ref="I65" r:id="rId35" xr:uid="{05CE4647-966E-DF48-8CA1-03A83C62482B}"/>
+    <hyperlink ref="I92" r:id="rId36" xr:uid="{56D06695-5D15-E243-A3E9-3C3764F61C8B}"/>
+    <hyperlink ref="I146" r:id="rId37" xr:uid="{10802715-6C55-A749-BE7D-04FD97B8A84F}"/>
+    <hyperlink ref="I91" r:id="rId38" xr:uid="{8A6DB2B8-6147-224A-85A2-5D6543F29DDA}"/>
+    <hyperlink ref="I90" r:id="rId39" xr:uid="{2EC71B1F-7CDB-5346-B4E9-77FA3E46A7BF}"/>
+    <hyperlink ref="I184" r:id="rId40" xr:uid="{2B2E8B8F-0A57-D14F-A511-9C27FDB41404}"/>
+    <hyperlink ref="I95" r:id="rId41" xr:uid="{0A921BCE-8D13-A348-AA4E-2C1848B3300E}"/>
+    <hyperlink ref="I153" r:id="rId42" xr:uid="{D49B6F2B-4BF1-D344-A7A8-00A3BD014DE3}"/>
+    <hyperlink ref="I105" r:id="rId43" xr:uid="{7F3F72E3-8DCD-A940-AE00-266FE3282D24}"/>
+    <hyperlink ref="I191" r:id="rId44" xr:uid="{6570C62B-EBD6-C345-A1C8-8730049EC75D}"/>
+    <hyperlink ref="I109" r:id="rId45" xr:uid="{AE8A3BA5-3AEB-E740-883F-60D4C68AD8EF}"/>
+    <hyperlink ref="I147" r:id="rId46" xr:uid="{A0E7F87E-5762-0240-92A3-151F3BD70B28}"/>
+    <hyperlink ref="I94" r:id="rId47" xr:uid="{663A01BF-5359-1840-B738-7AE8EB25DF5F}"/>
+    <hyperlink ref="I162" r:id="rId48" xr:uid="{E5F7D7CA-5EA8-614F-A752-02B5DD62160C}"/>
+    <hyperlink ref="I155" r:id="rId49" xr:uid="{3B75AE1E-D981-4346-BD45-EE14C7FE1ABC}"/>
+    <hyperlink ref="I124" r:id="rId50" xr:uid="{F4425CE2-2E4A-C541-A0D3-E7FB676DC1DC}"/>
+    <hyperlink ref="I102" r:id="rId51" xr:uid="{034D132E-0AC7-A54C-827B-217B8346D3E8}"/>
+    <hyperlink ref="I99" r:id="rId52" xr:uid="{CECD3921-49CC-2C46-B156-DFC25E6634F5}"/>
+    <hyperlink ref="I177" r:id="rId53" xr:uid="{44D882DD-A208-3A46-AF30-B537B46F36A3}"/>
+    <hyperlink ref="I111" r:id="rId54" xr:uid="{D6BBF4B8-6DE6-B44C-BE9A-59F748503344}"/>
+    <hyperlink ref="I100" r:id="rId55" xr:uid="{F7A37C63-2DA6-5741-BB36-AD325FD48EEC}"/>
+    <hyperlink ref="I168" r:id="rId56" xr:uid="{B5B031F8-BDFC-FB4D-9668-7B91E783BB9A}"/>
+    <hyperlink ref="I125" r:id="rId57" xr:uid="{E390BB61-119F-074F-A4CF-39EB53A60739}"/>
+    <hyperlink ref="I97" r:id="rId58" xr:uid="{7DAABFD6-9F43-304A-AE71-4B5A2B8D0A61}"/>
+    <hyperlink ref="I166" r:id="rId59" xr:uid="{42D70199-901A-704F-9F04-E82F8B4318A4}"/>
+    <hyperlink ref="I119" r:id="rId60" xr:uid="{83FFDE3A-D0BB-914A-B0D4-5A63ECE4F57D}"/>
+    <hyperlink ref="I164" r:id="rId61" xr:uid="{80B09E42-894C-B741-AFE6-0B5FC33E161E}"/>
+    <hyperlink ref="I149" r:id="rId62" xr:uid="{CB39A174-4973-5A4D-89C1-FF9083D4CDAA}"/>
+    <hyperlink ref="I93" r:id="rId63" xr:uid="{8F6F482B-2410-DC43-B1A4-755ED6F94166}"/>
+    <hyperlink ref="I110" r:id="rId64" xr:uid="{D8829200-CF7F-F44B-9685-290000EE0409}"/>
+    <hyperlink ref="I130" r:id="rId65" xr:uid="{FB536887-F9CF-4D4B-B785-DFD92CFCE8D1}"/>
+    <hyperlink ref="I142" r:id="rId66" xr:uid="{BBE16572-A311-A94D-82C7-FFCC65DA1868}"/>
+    <hyperlink ref="I120" r:id="rId67" xr:uid="{6CE3BF1F-0CFA-644E-87FF-5819FE1235BB}"/>
+    <hyperlink ref="I128" r:id="rId68" xr:uid="{F08CACD5-5187-9E4F-9716-C4BEAEBD7881}"/>
+    <hyperlink ref="I106" r:id="rId69" xr:uid="{15E0D509-139D-FE41-8920-8934FF4380E0}"/>
+    <hyperlink ref="I129" r:id="rId70" xr:uid="{FB6FF3A3-EB10-7943-B588-3A6E3E35D02D}"/>
+    <hyperlink ref="I158" r:id="rId71" xr:uid="{6AD4965E-E4B8-6A4B-9AEE-2B42984A4228}"/>
+    <hyperlink ref="I143" r:id="rId72" xr:uid="{E5E972AC-2264-3040-8AA8-5838D70ACF47}"/>
+    <hyperlink ref="I189" r:id="rId73" xr:uid="{E3C7BFF1-474D-8347-933E-9D7320008801}"/>
+    <hyperlink ref="I179" r:id="rId74" xr:uid="{D0D1C1CA-4E4E-1543-ADC5-23BCB98B47C6}"/>
+    <hyperlink ref="I114" r:id="rId75" xr:uid="{D4596676-748B-6942-9E31-A844A1FF2A7B}"/>
+    <hyperlink ref="I193" r:id="rId76" xr:uid="{589B01A7-78B0-DE49-B683-B5D857113719}"/>
+    <hyperlink ref="I194" r:id="rId77" xr:uid="{3C843F11-D9C0-484F-B165-832EE0E29D02}"/>
+    <hyperlink ref="I138" r:id="rId78" xr:uid="{D471DE09-0454-4E4C-AC29-F7F16017CEEC}"/>
+    <hyperlink ref="I151" r:id="rId79" xr:uid="{3A163934-CD1B-9243-96CB-E0A6B6FDA7A9}"/>
+    <hyperlink ref="I108" r:id="rId80" xr:uid="{F6E7EC0D-1394-1344-8717-31C6D76ADA74}"/>
+    <hyperlink ref="I180" r:id="rId81" xr:uid="{B458E3D5-31DF-DA47-9164-E9AE642EDCAE}"/>
+    <hyperlink ref="I103" r:id="rId82" xr:uid="{74BD5B08-B3EE-0F4A-95B0-EAB873EBD414}"/>
+    <hyperlink ref="I173" r:id="rId83" xr:uid="{F29B15AF-4B41-C544-9A53-8E794F629CA6}"/>
+    <hyperlink ref="I157" r:id="rId84" xr:uid="{9921D283-58BA-164B-93E8-4C06F186A1C9}"/>
+    <hyperlink ref="I137" r:id="rId85" xr:uid="{C6F75269-8F08-EF4D-BFD5-2951EC147E6F}"/>
+    <hyperlink ref="I186" r:id="rId86" xr:uid="{749BA72F-54CD-064A-AF67-9044AA531A9B}"/>
+    <hyperlink ref="I190" r:id="rId87" xr:uid="{1664F26A-F8AB-7A40-AB58-E63AA7344C42}"/>
+    <hyperlink ref="I195" r:id="rId88" xr:uid="{E9CC483E-E1CB-464D-9D99-A95D272C832E}"/>
+    <hyperlink ref="I140" r:id="rId89" xr:uid="{897ECBB0-2503-9A4F-991E-3CB275C6C9F3}"/>
+    <hyperlink ref="I165" r:id="rId90" xr:uid="{8352D7FB-0856-2F46-9819-199144A17072}"/>
+    <hyperlink ref="I104" r:id="rId91" xr:uid="{95D939CF-FD9B-0B4C-97EB-CA4D33B8F2E5}"/>
+    <hyperlink ref="I148" r:id="rId92" xr:uid="{2BF0031D-3F19-3549-B12E-D48C5027B9D9}"/>
+    <hyperlink ref="I107" r:id="rId93" xr:uid="{E1FF2E62-3AF1-F549-8F2C-287D94F8AF40}"/>
+    <hyperlink ref="I188" r:id="rId94" xr:uid="{4142CD18-EA92-0846-867F-68676C667560}"/>
+    <hyperlink ref="I167" r:id="rId95" xr:uid="{E456ADA8-118F-0C4F-B3D8-891EC7739ABA}"/>
+    <hyperlink ref="I118" r:id="rId96" xr:uid="{2F597291-C9F8-364C-AB71-851633EDE7BF}"/>
+    <hyperlink ref="I127" r:id="rId97" xr:uid="{DD27DA91-F0AE-3D49-88D1-08599D4EA84B}"/>
+    <hyperlink ref="I176" r:id="rId98" xr:uid="{E92FB1D0-236D-AA47-BAD2-44CFE73FE70B}"/>
+    <hyperlink ref="I117" r:id="rId99" xr:uid="{A8E7256E-8D74-1742-B352-EE59A9952655}"/>
+    <hyperlink ref="I192" r:id="rId100" xr:uid="{7DA2AC5E-1F72-644C-A3CB-87145B4575DE}"/>
+    <hyperlink ref="I135" r:id="rId101" xr:uid="{E15A75D9-CBA4-C94A-A892-5CAE2CF35A8C}"/>
+    <hyperlink ref="I134" r:id="rId102" xr:uid="{F7C52E37-3FF2-8747-83CC-BA1306AF1304}"/>
+    <hyperlink ref="I159" r:id="rId103" xr:uid="{1DD00ABA-3BB9-204D-8077-BDFFA7DBE71E}"/>
+    <hyperlink ref="I187" r:id="rId104" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
+    <hyperlink ref="I178" r:id="rId105" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
+    <hyperlink ref="I172" r:id="rId106" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
+    <hyperlink ref="I210" r:id="rId107" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I204" r:id="rId108" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I202" r:id="rId109" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I208" r:id="rId110" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I133" r:id="rId111" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
+    <hyperlink ref="I183" r:id="rId112" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
+    <hyperlink ref="I175" r:id="rId113" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
+    <hyperlink ref="I214" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I203" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I207" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I213" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I215" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I212" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I217" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I98" r:id="rId121" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
+    <hyperlink ref="I196" r:id="rId122" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
+    <hyperlink ref="I123" r:id="rId123" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
+    <hyperlink ref="I182" r:id="rId124" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
+    <hyperlink ref="I185" r:id="rId125" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
+    <hyperlink ref="I211" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
+    <hyperlink ref="I4" r:id="rId127" xr:uid="{7C87F529-8464-7745-BDC3-50EE8227E343}"/>
+    <hyperlink ref="I10" r:id="rId128" xr:uid="{DAEA7C5D-2130-AB47-8B55-7BC3E37A4FAD}"/>
+    <hyperlink ref="I15" r:id="rId129" xr:uid="{03F641E5-A386-FA43-BAF9-1DDE2C2A75AA}"/>
+    <hyperlink ref="I18" r:id="rId130" xr:uid="{6CD054D2-180C-8F40-808C-56AC9862EDA9}"/>
+    <hyperlink ref="I20" r:id="rId131" xr:uid="{E7D8C771-CF34-E94A-8B4C-32719743831E}"/>
+    <hyperlink ref="I23" r:id="rId132" xr:uid="{A41DFD63-0DBD-4A4B-B06B-A2FBBD8C1672}"/>
+    <hyperlink ref="I25" r:id="rId133" xr:uid="{6FE62E31-E93D-B149-94CC-967F1B96B63E}"/>
+    <hyperlink ref="I26" r:id="rId134" xr:uid="{1A790D5E-6CDC-884A-B034-4EBDD2495EFA}"/>
+    <hyperlink ref="I27" r:id="rId135" xr:uid="{7AFCFED4-86AE-104B-A7E6-B3567DD32F51}"/>
+    <hyperlink ref="I44" r:id="rId136" xr:uid="{4500E987-AB48-034E-92E1-52C3A6686458}"/>
+    <hyperlink ref="I47" r:id="rId137" xr:uid="{3AEF19B5-493D-5E4F-B0BC-C6FC1C35FCA6}"/>
+    <hyperlink ref="I48" r:id="rId138" xr:uid="{A2FD86FD-8093-FF4A-81D7-E89AAB152237}"/>
+    <hyperlink ref="I49" r:id="rId139" xr:uid="{45C6D322-403E-8C4A-AF24-DA8A5D61B00A}"/>
+    <hyperlink ref="I51" r:id="rId140" xr:uid="{6332E439-28FF-244C-8B6C-45F423F2CEF2}"/>
+    <hyperlink ref="I56" r:id="rId141" xr:uid="{1111BA51-A219-8546-B88B-297CCEF4B78D}"/>
+    <hyperlink ref="I57" r:id="rId142" xr:uid="{2A2106ED-C47E-0B4C-9D22-DE3B9504BA0C}"/>
+    <hyperlink ref="I58" r:id="rId143" xr:uid="{039C13FC-54F0-D444-BBA8-07917D09FA64}"/>
+    <hyperlink ref="I59" r:id="rId144" xr:uid="{FA3E69A9-BE11-0E48-9FDA-925BB3CEF710}"/>
+    <hyperlink ref="I60" r:id="rId145" xr:uid="{F66A0870-B8FC-B24F-98DC-0FF1F5E4D908}"/>
+    <hyperlink ref="I64" r:id="rId146" xr:uid="{1504338C-340F-3F4D-955D-F0AAC0404CFC}"/>
+    <hyperlink ref="I67" r:id="rId147" xr:uid="{E035B6E2-756D-2C47-959C-132CEB99B6EE}"/>
+    <hyperlink ref="I71" r:id="rId148" xr:uid="{91DE3A5F-7C26-5D4B-A09C-ECA6F42FBA8E}"/>
+    <hyperlink ref="I73" r:id="rId149" xr:uid="{9306DE80-A06D-0E43-B3CB-55EFC32CD319}"/>
+    <hyperlink ref="I74" r:id="rId150" xr:uid="{4D300926-1862-964D-8331-F214EDC71223}"/>
+    <hyperlink ref="I75" r:id="rId151" xr:uid="{8C2585E5-7859-5D4B-B9F9-D55BFB8A7805}"/>
+    <hyperlink ref="I76" r:id="rId152" xr:uid="{65E8CB7C-B0C7-CA44-B0CA-FF76B8FC45D0}"/>
+    <hyperlink ref="I77" r:id="rId153" xr:uid="{FBAA08B3-73C4-8F4F-8927-7BE36C8DDE02}"/>
+    <hyperlink ref="I78" r:id="rId154" xr:uid="{5C0BF656-D3A8-784B-A8B5-B6F1FAABC9E4}"/>
+    <hyperlink ref="I79" r:id="rId155" xr:uid="{4BB180CE-67F7-6845-AAC7-7AD32D3581CD}"/>
+    <hyperlink ref="I80" r:id="rId156" xr:uid="{3E8B07FF-9654-F447-B9C3-3A17794A9CB9}"/>
+    <hyperlink ref="I82" r:id="rId157" xr:uid="{FBF363C2-85CD-2A49-A5FB-5163D98FA27F}"/>
+    <hyperlink ref="I83" r:id="rId158" xr:uid="{6922958A-3851-D341-BC7D-025CB889E480}"/>
+    <hyperlink ref="I84" r:id="rId159" xr:uid="{84E46B7E-2585-6540-9B1E-29B18DEECA26}"/>
+    <hyperlink ref="I96" r:id="rId160" xr:uid="{456C2723-341A-5048-92EA-B825325659C0}"/>
+    <hyperlink ref="I101" r:id="rId161" xr:uid="{A100C778-8408-C441-8438-C1A010035C74}"/>
+    <hyperlink ref="I112" r:id="rId162" xr:uid="{0337783F-CDDA-ED4F-9B45-57EDCC8A4A4E}"/>
+    <hyperlink ref="I113" r:id="rId163" xr:uid="{84314365-0546-554B-AE5C-40A9E284C988}"/>
+    <hyperlink ref="I115" r:id="rId164" xr:uid="{2C39323D-A290-0946-B79F-08002B32CA6B}"/>
+    <hyperlink ref="I116" r:id="rId165" xr:uid="{7FE2B97B-EEA9-AF4D-960F-92A7F255F013}"/>
+    <hyperlink ref="I121" r:id="rId166" xr:uid="{E8810681-A091-D944-8B1F-A1E0BA1917F3}"/>
+    <hyperlink ref="I122" r:id="rId167" xr:uid="{563F7173-F2D5-F341-9D9F-272DD2FFF2D4}"/>
+    <hyperlink ref="I126" r:id="rId168" xr:uid="{2A02D938-E3D7-4845-A79C-40EB888CD69E}"/>
+    <hyperlink ref="I131" r:id="rId169" xr:uid="{D2AD5B5D-93D9-354D-A806-955108554EF4}"/>
+    <hyperlink ref="I132" r:id="rId170" xr:uid="{00165ED6-FE9B-6746-AA45-2AC47FD56CCD}"/>
+    <hyperlink ref="I136" r:id="rId171" xr:uid="{E5B95C74-A6B2-0B40-8E88-A8904C9DAD70}"/>
+    <hyperlink ref="I139" r:id="rId172" xr:uid="{8878433C-0B3E-0B43-AFF9-52C43D0EDE36}"/>
+    <hyperlink ref="I141" r:id="rId173" xr:uid="{29AA1D6E-E6F5-4647-AF2D-531EF2D79A11}"/>
+    <hyperlink ref="I145" r:id="rId174" xr:uid="{8F1D6144-3916-B645-98C3-59BA21CAEF67}"/>
+    <hyperlink ref="I144" r:id="rId175" xr:uid="{49FE4796-3727-684A-996C-6673B623C87A}"/>
+    <hyperlink ref="I150" r:id="rId176" xr:uid="{BF339BDD-DBC8-9D49-ADC3-0E8D43C049AD}"/>
+    <hyperlink ref="I152" r:id="rId177" xr:uid="{7C7BABE9-46E2-F849-8D58-76A0D48F203D}"/>
+    <hyperlink ref="I154" r:id="rId178" xr:uid="{6A3EFDC3-F044-6447-928E-0C1262936341}"/>
+    <hyperlink ref="I156" r:id="rId179" xr:uid="{8CEF23D2-A78B-504A-A7FB-BCE36414770C}"/>
+    <hyperlink ref="I160" r:id="rId180" xr:uid="{7C566A56-6B59-3445-9493-D9258D4B65D8}"/>
+    <hyperlink ref="I161" r:id="rId181" xr:uid="{785F8150-C479-D949-A6EB-D66BFFA44263}"/>
+    <hyperlink ref="I163" r:id="rId182" xr:uid="{119A1F9C-1368-BC41-B54E-C9BAA36127BA}"/>
+    <hyperlink ref="I169" r:id="rId183" xr:uid="{D57696E9-4E50-C74F-84BC-32EF8444FB11}"/>
+    <hyperlink ref="I170" r:id="rId184" xr:uid="{005C90D8-5EAA-C84D-8D8A-1D61FDB06B0F}"/>
+    <hyperlink ref="I171" r:id="rId185" xr:uid="{9041D237-4E72-6D43-BFB1-2E060B30BA59}"/>
+    <hyperlink ref="I174" r:id="rId186" xr:uid="{ED0CC584-3ED2-7149-928F-EA3B71BD5131}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
